--- a/predicted_data.xlsx
+++ b/predicted_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakan\OneDrive\Masaüstü\DSMLBC 11\07_Donem_Projesı\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4279632-032B-4AE4-8949-CF27459875D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21251D3-00B7-43D2-B450-935E66578F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,13 +401,13 @@
   <dimension ref="A1:B1044"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>44249</v>
       </c>
       <c r="B2" s="4">
-        <v>776776640</v>
+        <v>741598400</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -431,7 +431,7 @@
         <v>44250</v>
       </c>
       <c r="B3" s="4">
-        <v>775664960</v>
+        <v>733754304</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>44251</v>
       </c>
       <c r="B4" s="4">
-        <v>772568064</v>
+        <v>733142272</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>44252</v>
       </c>
       <c r="B5" s="4">
-        <v>771324096</v>
+        <v>731667712</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>44253</v>
       </c>
       <c r="B6" s="4">
-        <v>769231424</v>
+        <v>732992512</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>44254</v>
       </c>
       <c r="B7" s="4">
-        <v>766746240</v>
+        <v>734795840</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>44255</v>
       </c>
       <c r="B8" s="4">
-        <v>765225536</v>
+        <v>737625728</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>44256</v>
       </c>
       <c r="B9" s="4">
-        <v>762700864</v>
+        <v>740595968</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>44257</v>
       </c>
       <c r="B10" s="4">
-        <v>761804224</v>
+        <v>742663808</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>44258</v>
       </c>
       <c r="B11" s="4">
-        <v>762575680</v>
+        <v>746569728</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>44259</v>
       </c>
       <c r="B12" s="4">
-        <v>762300928</v>
+        <v>749235008</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>44260</v>
       </c>
       <c r="B13" s="4">
-        <v>763227904</v>
+        <v>746737664</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>44261</v>
       </c>
       <c r="B14" s="4">
-        <v>760846208</v>
+        <v>742662144</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>44262</v>
       </c>
       <c r="B15" s="4">
-        <v>769454784</v>
+        <v>737386624</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>44263</v>
       </c>
       <c r="B16" s="4">
-        <v>761244416</v>
+        <v>741781120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>44264</v>
       </c>
       <c r="B17" s="4">
-        <v>760400192</v>
+        <v>740491968</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>44265</v>
       </c>
       <c r="B18" s="4">
-        <v>760814080</v>
+        <v>739498176</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>44266</v>
       </c>
       <c r="B19" s="4">
-        <v>763024384</v>
+        <v>739577984</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>44267</v>
       </c>
       <c r="B20" s="4">
-        <v>761470848</v>
+        <v>740154688</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>44268</v>
       </c>
       <c r="B21" s="4">
-        <v>762293952</v>
+        <v>742810560</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>44269</v>
       </c>
       <c r="B22" s="4">
-        <v>761559552</v>
+        <v>742409792</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>44270</v>
       </c>
       <c r="B23" s="4">
-        <v>762409408</v>
+        <v>744422144</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>44271</v>
       </c>
       <c r="B24" s="4">
-        <v>761877696</v>
+        <v>744478528</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>44272</v>
       </c>
       <c r="B25" s="4">
-        <v>761959680</v>
+        <v>745744576</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>44273</v>
       </c>
       <c r="B26" s="4">
-        <v>761073920</v>
+        <v>747144512</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>44274</v>
       </c>
       <c r="B27" s="4">
-        <v>760971520</v>
+        <v>747832960</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>44275</v>
       </c>
       <c r="B28" s="4">
-        <v>760714944</v>
+        <v>748486144</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>44276</v>
       </c>
       <c r="B29" s="4">
-        <v>760791552</v>
+        <v>749612160</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>44277</v>
       </c>
       <c r="B30" s="4">
-        <v>761509248</v>
+        <v>748187904</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>44278</v>
       </c>
       <c r="B31" s="4">
-        <v>758904576</v>
+        <v>748520128</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>44279</v>
       </c>
       <c r="B32" s="4">
-        <v>758222848</v>
+        <v>749203072</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>44280</v>
       </c>
       <c r="B33" s="4">
-        <v>755604416</v>
+        <v>748400192</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>44281</v>
       </c>
       <c r="B34" s="4">
-        <v>753663040</v>
+        <v>748208192</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>44282</v>
       </c>
       <c r="B35" s="4">
-        <v>751156736</v>
+        <v>746625408</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>44283</v>
       </c>
       <c r="B36" s="4">
-        <v>749702976</v>
+        <v>745016192</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>44284</v>
       </c>
       <c r="B37" s="4">
-        <v>751377984</v>
+        <v>745147456</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>44285</v>
       </c>
       <c r="B38" s="4">
-        <v>751170304</v>
+        <v>746742400</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>44286</v>
       </c>
       <c r="B39" s="4">
-        <v>751081216</v>
+        <v>747203968</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>44287</v>
       </c>
       <c r="B40" s="4">
-        <v>749894400</v>
+        <v>747047680</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>44288</v>
       </c>
       <c r="B41" s="4">
-        <v>748077696</v>
+        <v>746376960</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>44289</v>
       </c>
       <c r="B42" s="4">
-        <v>747730304</v>
+        <v>746394240</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>44290</v>
       </c>
       <c r="B43" s="4">
-        <v>747080768</v>
+        <v>746572160</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>44291</v>
       </c>
       <c r="B44" s="4">
-        <v>746599680</v>
+        <v>746774400</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>44292</v>
       </c>
       <c r="B45" s="4">
-        <v>745445632</v>
+        <v>746549056</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>44293</v>
       </c>
       <c r="B46" s="4">
-        <v>744034944</v>
+        <v>746437632</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>44294</v>
       </c>
       <c r="B47" s="4">
-        <v>741190592</v>
+        <v>744139008</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>44295</v>
       </c>
       <c r="B48" s="4">
-        <v>740055936</v>
+        <v>743913536</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>44296</v>
       </c>
       <c r="B49" s="4">
-        <v>736363776</v>
+        <v>740383680</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>44297</v>
       </c>
       <c r="B50" s="4">
-        <v>733394688</v>
+        <v>736485312</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>44298</v>
       </c>
       <c r="B51" s="4">
-        <v>733806784</v>
+        <v>736819520</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>44299</v>
       </c>
       <c r="B52" s="4">
-        <v>733505600</v>
+        <v>737353792</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>44300</v>
       </c>
       <c r="B53" s="4">
-        <v>734008576</v>
+        <v>738404864</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>44301</v>
       </c>
       <c r="B54" s="4">
-        <v>733221312</v>
+        <v>738930880</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>44302</v>
       </c>
       <c r="B55" s="4">
-        <v>730963968</v>
+        <v>738474048</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>44303</v>
       </c>
       <c r="B56" s="4">
-        <v>727995776</v>
+        <v>736813760</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>44304</v>
       </c>
       <c r="B57" s="4">
-        <v>724657728</v>
+        <v>733168896</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>44305</v>
       </c>
       <c r="B58" s="4">
-        <v>721653760</v>
+        <v>729606848</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>44306</v>
       </c>
       <c r="B59" s="4">
-        <v>720624448</v>
+        <v>728209280</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>44307</v>
       </c>
       <c r="B60" s="4">
-        <v>718103360</v>
+        <v>725524928</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>44308</v>
       </c>
       <c r="B61" s="4">
-        <v>716321216</v>
+        <v>723119680</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>44309</v>
       </c>
       <c r="B62" s="4">
-        <v>713589888</v>
+        <v>719838848</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
         <v>44310</v>
       </c>
       <c r="B63" s="4">
-        <v>709155968</v>
+        <v>712289536</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>44311</v>
       </c>
       <c r="B64" s="4">
-        <v>708039680</v>
+        <v>709380608</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>44312</v>
       </c>
       <c r="B65" s="4">
-        <v>706476672</v>
+        <v>708148160</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>44313</v>
       </c>
       <c r="B66" s="4">
-        <v>702179072</v>
+        <v>701041920</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>44314</v>
       </c>
       <c r="B67" s="4">
-        <v>699403200</v>
+        <v>695870720</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>44315</v>
       </c>
       <c r="B68" s="4">
-        <v>698833344</v>
+        <v>693512640</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>44316</v>
       </c>
       <c r="B69" s="4">
-        <v>697656320</v>
+        <v>693789824</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>44317</v>
       </c>
       <c r="B70" s="4">
-        <v>697405120</v>
+        <v>693672064</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>44318</v>
       </c>
       <c r="B71" s="4">
-        <v>696820032</v>
+        <v>693063872</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>44319</v>
       </c>
       <c r="B72" s="4">
-        <v>695757440</v>
+        <v>692625728</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>44320</v>
       </c>
       <c r="B73" s="4">
-        <v>696348480</v>
+        <v>693432512</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>44321</v>
       </c>
       <c r="B74" s="4">
-        <v>696040640</v>
+        <v>693418176</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>44322</v>
       </c>
       <c r="B75" s="4">
-        <v>695131136</v>
+        <v>693761728</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>44323</v>
       </c>
       <c r="B76" s="4">
-        <v>694984704</v>
+        <v>694712960</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>44324</v>
       </c>
       <c r="B77" s="4">
-        <v>691311296</v>
+        <v>689728512</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>44325</v>
       </c>
       <c r="B78" s="4">
-        <v>687155264</v>
+        <v>681996096</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>44326</v>
       </c>
       <c r="B79" s="4">
-        <v>682118080</v>
+        <v>670428736</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>44327</v>
       </c>
       <c r="B80" s="4">
-        <v>687741056</v>
+        <v>667560448</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>44328</v>
       </c>
       <c r="B81" s="4">
-        <v>688273536</v>
+        <v>669141696</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>44329</v>
       </c>
       <c r="B82" s="4">
-        <v>688398016</v>
+        <v>672676416</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>44330</v>
       </c>
       <c r="B83" s="4">
-        <v>688508224</v>
+        <v>675964032</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>44331</v>
       </c>
       <c r="B84" s="4">
-        <v>687889472</v>
+        <v>678107136</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>44332</v>
       </c>
       <c r="B85" s="4">
-        <v>684338240</v>
+        <v>678618432</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>44333</v>
       </c>
       <c r="B86" s="4">
-        <v>680691136</v>
+        <v>677987328</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>44334</v>
       </c>
       <c r="B87" s="4">
-        <v>677439040</v>
+        <v>677096128</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>44335</v>
       </c>
       <c r="B88" s="4">
-        <v>675462592</v>
+        <v>676145728</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>44336</v>
       </c>
       <c r="B89" s="4">
-        <v>670763328</v>
+        <v>674295488</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>44337</v>
       </c>
       <c r="B90" s="4">
-        <v>666531776</v>
+        <v>671258880</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>44338</v>
       </c>
       <c r="B91" s="4">
-        <v>663341120</v>
+        <v>668056064</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>44339</v>
       </c>
       <c r="B92" s="4">
-        <v>662139968</v>
+        <v>665452800</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>44340</v>
       </c>
       <c r="B93" s="4">
-        <v>665841664</v>
+        <v>668098112</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>44341</v>
       </c>
       <c r="B94" s="4">
-        <v>662798656</v>
+        <v>664333184</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>44342</v>
       </c>
       <c r="B95" s="4">
-        <v>658167360</v>
+        <v>658873088</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>44343</v>
       </c>
       <c r="B96" s="4">
-        <v>654501568</v>
+        <v>654736576</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
         <v>44344</v>
       </c>
       <c r="B97" s="4">
-        <v>651744256</v>
+        <v>652979968</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>44345</v>
       </c>
       <c r="B98" s="4">
-        <v>647259712</v>
+        <v>649853056</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>44346</v>
       </c>
       <c r="B99" s="4">
-        <v>639142592</v>
+        <v>641400448</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>44347</v>
       </c>
       <c r="B100" s="4">
-        <v>628866944</v>
+        <v>634352384</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>44348</v>
       </c>
       <c r="B101" s="4">
-        <v>636509248</v>
+        <v>621818112</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>44349</v>
       </c>
       <c r="B102" s="4">
-        <v>636296960</v>
+        <v>620895424</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>44350</v>
       </c>
       <c r="B103" s="4">
-        <v>635060800</v>
+        <v>622779456</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>44351</v>
       </c>
       <c r="B104" s="4">
-        <v>632949312</v>
+        <v>622782336</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>44352</v>
       </c>
       <c r="B105" s="4">
-        <v>630021696</v>
+        <v>620334848</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>44353</v>
       </c>
       <c r="B106" s="4">
-        <v>627899520</v>
+        <v>618847680</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>44354</v>
       </c>
       <c r="B107" s="4">
-        <v>626087168</v>
+        <v>616298816</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>44355</v>
       </c>
       <c r="B108" s="4">
-        <v>624639232</v>
+        <v>613777088</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>44356</v>
       </c>
       <c r="B109" s="4">
-        <v>623584064</v>
+        <v>611521728</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>44357</v>
       </c>
       <c r="B110" s="4">
-        <v>618459584</v>
+        <v>606535744</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>44358</v>
       </c>
       <c r="B111" s="4">
-        <v>616266688</v>
+        <v>605058176</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>44359</v>
       </c>
       <c r="B112" s="4">
-        <v>619743552</v>
+        <v>605676480</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>44360</v>
       </c>
       <c r="B113" s="4">
-        <v>624899456</v>
+        <v>606946240</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>44361</v>
       </c>
       <c r="B114" s="4">
-        <v>622483968</v>
+        <v>606300928</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>44362</v>
       </c>
       <c r="B115" s="4">
-        <v>616178176</v>
+        <v>602176000</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>44363</v>
       </c>
       <c r="B116" s="4">
-        <v>604417088</v>
+        <v>600959232</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,7 +1343,7 @@
         <v>44364</v>
       </c>
       <c r="B117" s="4">
-        <v>610912512</v>
+        <v>588539584</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>44365</v>
       </c>
       <c r="B118" s="4">
-        <v>615702784</v>
+        <v>591358592</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>44366</v>
       </c>
       <c r="B119" s="4">
-        <v>608932736</v>
+        <v>595319360</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>44367</v>
       </c>
       <c r="B120" s="4">
-        <v>600900032</v>
+        <v>600386368</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>44368</v>
       </c>
       <c r="B121" s="4">
-        <v>596450048</v>
+        <v>604207616</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>44369</v>
       </c>
       <c r="B122" s="4">
-        <v>593075136</v>
+        <v>607474304</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
         <v>44370</v>
       </c>
       <c r="B123" s="4">
-        <v>585730880</v>
+        <v>599871040</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>44371</v>
       </c>
       <c r="B124" s="4">
-        <v>580853312</v>
+        <v>595296000</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>44372</v>
       </c>
       <c r="B125" s="4">
-        <v>578430592</v>
+        <v>586283392</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>44373</v>
       </c>
       <c r="B126" s="4">
-        <v>580833024</v>
+        <v>587791040</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>44374</v>
       </c>
       <c r="B127" s="4">
-        <v>582535424</v>
+        <v>591936512</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>44375</v>
       </c>
       <c r="B128" s="4">
-        <v>577235328</v>
+        <v>587937280</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>44376</v>
       </c>
       <c r="B129" s="4">
-        <v>573631424</v>
+        <v>588513216</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
         <v>44377</v>
       </c>
       <c r="B130" s="4">
-        <v>571472896</v>
+        <v>573798656</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>44378</v>
       </c>
       <c r="B131" s="4">
-        <v>571617984</v>
+        <v>568155520</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>44379</v>
       </c>
       <c r="B132" s="4">
-        <v>570123328</v>
+        <v>562657024</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1471,7 +1471,7 @@
         <v>44380</v>
       </c>
       <c r="B133" s="4">
-        <v>565217920</v>
+        <v>557661504</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>44381</v>
       </c>
       <c r="B134" s="4">
-        <v>557987136</v>
+        <v>548924928</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>44382</v>
       </c>
       <c r="B135" s="4">
-        <v>550696448</v>
+        <v>539570880</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>44383</v>
       </c>
       <c r="B136" s="4">
-        <v>545382720</v>
+        <v>531917760</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
         <v>44384</v>
       </c>
       <c r="B137" s="4">
-        <v>541372864</v>
+        <v>528324000</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>44385</v>
       </c>
       <c r="B138" s="4">
-        <v>533620128</v>
+        <v>520792736</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>44386</v>
       </c>
       <c r="B139" s="4">
-        <v>524969344</v>
+        <v>515123200</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>44387</v>
       </c>
       <c r="B140" s="4">
-        <v>516676928</v>
+        <v>511514784</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
         <v>44388</v>
       </c>
       <c r="B141" s="4">
-        <v>512072544</v>
+        <v>508069696</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>44389</v>
       </c>
       <c r="B142" s="4">
-        <v>515909824</v>
+        <v>506948224</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>44390</v>
       </c>
       <c r="B143" s="4">
-        <v>522782432</v>
+        <v>506638400</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>44391</v>
       </c>
       <c r="B144" s="4">
-        <v>521528256</v>
+        <v>506354592</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>44392</v>
       </c>
       <c r="B145" s="4">
-        <v>519995072</v>
+        <v>507462304</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>44393</v>
       </c>
       <c r="B146" s="4">
-        <v>514815776</v>
+        <v>508239680</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>44394</v>
       </c>
       <c r="B147" s="4">
-        <v>509000416</v>
+        <v>508596512</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>44395</v>
       </c>
       <c r="B148" s="4">
-        <v>503778368</v>
+        <v>508693568</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>44396</v>
       </c>
       <c r="B149" s="4">
-        <v>500516576</v>
+        <v>509700448</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>44397</v>
       </c>
       <c r="B150" s="4">
-        <v>499901184</v>
+        <v>511611968</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>44398</v>
       </c>
       <c r="B151" s="4">
-        <v>501257440</v>
+        <v>512588640</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>44399</v>
       </c>
       <c r="B152" s="4">
-        <v>502793792</v>
+        <v>512864000</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>44400</v>
       </c>
       <c r="B153" s="4">
-        <v>504100992</v>
+        <v>513066048</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>44401</v>
       </c>
       <c r="B154" s="4">
-        <v>502768896</v>
+        <v>512062400</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
         <v>44402</v>
       </c>
       <c r="B155" s="4">
-        <v>499536480</v>
+        <v>510339872</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
         <v>44403</v>
       </c>
       <c r="B156" s="4">
-        <v>496785408</v>
+        <v>509558048</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
         <v>44404</v>
       </c>
       <c r="B157" s="4">
-        <v>495170784</v>
+        <v>509793824</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>44405</v>
       </c>
       <c r="B158" s="4">
-        <v>492617088</v>
+        <v>509442752</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>44406</v>
       </c>
       <c r="B159" s="4">
-        <v>490974528</v>
+        <v>510149856</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1687,7 +1687,7 @@
         <v>44407</v>
       </c>
       <c r="B160" s="4">
-        <v>488686496</v>
+        <v>510530400</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1695,7 +1695,7 @@
         <v>44408</v>
       </c>
       <c r="B161" s="4">
-        <v>486882208</v>
+        <v>510189920</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
         <v>44409</v>
       </c>
       <c r="B162" s="4">
-        <v>485003296</v>
+        <v>510228320</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>44410</v>
       </c>
       <c r="B163" s="4">
-        <v>483724768</v>
+        <v>510137824</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>44411</v>
       </c>
       <c r="B164" s="4">
-        <v>480484032</v>
+        <v>509175936</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>44412</v>
       </c>
       <c r="B165" s="4">
-        <v>475160672</v>
+        <v>508010944</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
         <v>44413</v>
       </c>
       <c r="B166" s="4">
-        <v>474969792</v>
+        <v>509154176</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>44414</v>
       </c>
       <c r="B167" s="4">
-        <v>476647040</v>
+        <v>511368064</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
         <v>44415</v>
       </c>
       <c r="B168" s="4">
-        <v>479076384</v>
+        <v>513826656</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>44416</v>
       </c>
       <c r="B169" s="4">
-        <v>483764512</v>
+        <v>517795616</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>44417</v>
       </c>
       <c r="B170" s="4">
-        <v>487163552</v>
+        <v>522779872</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>44418</v>
       </c>
       <c r="B171" s="4">
-        <v>487837952</v>
+        <v>525347456</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>44419</v>
       </c>
       <c r="B172" s="4">
-        <v>486725728</v>
+        <v>523355872</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
         <v>44420</v>
       </c>
       <c r="B173" s="4">
-        <v>484733792</v>
+        <v>521961376</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1799,7 +1799,7 @@
         <v>44421</v>
       </c>
       <c r="B174" s="4">
-        <v>484213984</v>
+        <v>518241440</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>44422</v>
       </c>
       <c r="B175" s="4">
-        <v>480185600</v>
+        <v>514317088</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>44423</v>
       </c>
       <c r="B176" s="4">
-        <v>477170048</v>
+        <v>511016128</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1823,7 +1823,7 @@
         <v>44424</v>
       </c>
       <c r="B177" s="4">
-        <v>472063648</v>
+        <v>505734688</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>44425</v>
       </c>
       <c r="B178" s="4">
-        <v>471477728</v>
+        <v>505330048</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,7 +1839,7 @@
         <v>44426</v>
       </c>
       <c r="B179" s="4">
-        <v>471906496</v>
+        <v>504252128</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>44427</v>
       </c>
       <c r="B180" s="4">
-        <v>469728256</v>
+        <v>501452768</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1855,7 +1855,7 @@
         <v>44428</v>
       </c>
       <c r="B181" s="4">
-        <v>467725568</v>
+        <v>500063840</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
         <v>44429</v>
       </c>
       <c r="B182" s="4">
-        <v>464228096</v>
+        <v>497600160</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
         <v>44430</v>
       </c>
       <c r="B183" s="4">
-        <v>463223168</v>
+        <v>496261760</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
         <v>44431</v>
       </c>
       <c r="B184" s="4">
-        <v>461483392</v>
+        <v>495079424</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>44432</v>
       </c>
       <c r="B185" s="4">
-        <v>459854688</v>
+        <v>493864256</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
         <v>44433</v>
       </c>
       <c r="B186" s="4">
-        <v>459131936</v>
+        <v>491750464</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>44434</v>
       </c>
       <c r="B187" s="4">
-        <v>457327552</v>
+        <v>489465984</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>44435</v>
       </c>
       <c r="B188" s="4">
-        <v>455833600</v>
+        <v>487037920</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>44436</v>
       </c>
       <c r="B189" s="4">
-        <v>451248768</v>
+        <v>484332704</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>44437</v>
       </c>
       <c r="B190" s="4">
-        <v>447599648</v>
+        <v>481888160</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>44438</v>
       </c>
       <c r="B191" s="4">
-        <v>443575584</v>
+        <v>480525664</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1943,7 +1943,7 @@
         <v>44439</v>
       </c>
       <c r="B192" s="4">
-        <v>443022336</v>
+        <v>479842144</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>44440</v>
       </c>
       <c r="B193" s="4">
-        <v>442868896</v>
+        <v>478771456</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>44441</v>
       </c>
       <c r="B194" s="4">
-        <v>441440160</v>
+        <v>477181952</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
         <v>44442</v>
       </c>
       <c r="B195" s="4">
-        <v>439529472</v>
+        <v>475080128</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>44443</v>
       </c>
       <c r="B196" s="4">
-        <v>437466560</v>
+        <v>474049504</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,7 +1983,7 @@
         <v>44444</v>
       </c>
       <c r="B197" s="4">
-        <v>436790368</v>
+        <v>474430176</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
         <v>44445</v>
       </c>
       <c r="B198" s="4">
-        <v>437376064</v>
+        <v>474304608</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,7 +1999,7 @@
         <v>44446</v>
       </c>
       <c r="B199" s="4">
-        <v>435343776</v>
+        <v>473417216</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>44447</v>
       </c>
       <c r="B200" s="4">
-        <v>435444416</v>
+        <v>473348320</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>44448</v>
       </c>
       <c r="B201" s="4">
-        <v>436181024</v>
+        <v>473193792</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>44449</v>
       </c>
       <c r="B202" s="4">
-        <v>437386400</v>
+        <v>473497952</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
         <v>44450</v>
       </c>
       <c r="B203" s="4">
-        <v>435685504</v>
+        <v>472524512</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
         <v>44451</v>
       </c>
       <c r="B204" s="4">
-        <v>435144192</v>
+        <v>471124608</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>44452</v>
       </c>
       <c r="B205" s="4">
-        <v>435496192</v>
+        <v>470777728</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>44453</v>
       </c>
       <c r="B206" s="4">
-        <v>436490944</v>
+        <v>471899008</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>44454</v>
       </c>
       <c r="B207" s="4">
-        <v>435688192</v>
+        <v>471501696</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>44455</v>
       </c>
       <c r="B208" s="4">
-        <v>431060864</v>
+        <v>470671488</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2079,7 +2079,7 @@
         <v>44456</v>
       </c>
       <c r="B209" s="4">
-        <v>422176544</v>
+        <v>469302272</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
         <v>44457</v>
       </c>
       <c r="B210" s="4">
-        <v>419725120</v>
+        <v>470364800</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>44458</v>
       </c>
       <c r="B211" s="4">
-        <v>415801952</v>
+        <v>470484032</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>44459</v>
       </c>
       <c r="B212" s="4">
-        <v>409559008</v>
+        <v>469078080</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2111,7 +2111,7 @@
         <v>44460</v>
       </c>
       <c r="B213" s="4">
-        <v>404317600</v>
+        <v>465455168</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>44461</v>
       </c>
       <c r="B214" s="4">
-        <v>400167904</v>
+        <v>468814016</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>44462</v>
       </c>
       <c r="B215" s="4">
-        <v>399863648</v>
+        <v>474609408</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2135,7 +2135,7 @@
         <v>44463</v>
       </c>
       <c r="B216" s="4">
-        <v>407647168</v>
+        <v>478801120</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
         <v>44464</v>
       </c>
       <c r="B217" s="4">
-        <v>410851872</v>
+        <v>481008064</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>44465</v>
       </c>
       <c r="B218" s="4">
-        <v>412709504</v>
+        <v>483925024</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>44466</v>
       </c>
       <c r="B219" s="4">
-        <v>419703488</v>
+        <v>485878752</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
         <v>44467</v>
       </c>
       <c r="B220" s="4">
-        <v>423427456</v>
+        <v>486825024</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2175,7 +2175,7 @@
         <v>44468</v>
       </c>
       <c r="B221" s="4">
-        <v>430281120</v>
+        <v>490006912</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>44469</v>
       </c>
       <c r="B222" s="4">
-        <v>429555200</v>
+        <v>490487552</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2191,7 +2191,7 @@
         <v>44470</v>
       </c>
       <c r="B223" s="4">
-        <v>425789568</v>
+        <v>494889888</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>44471</v>
       </c>
       <c r="B224" s="4">
-        <v>434734400</v>
+        <v>495895168</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>44472</v>
       </c>
       <c r="B225" s="4">
-        <v>444426336</v>
+        <v>494927936</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
         <v>44473</v>
       </c>
       <c r="B226" s="4">
-        <v>439898560</v>
+        <v>501559808</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>44474</v>
       </c>
       <c r="B227" s="4">
-        <v>440579648</v>
+        <v>505528576</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2231,7 +2231,7 @@
         <v>44475</v>
       </c>
       <c r="B228" s="4">
-        <v>453120256</v>
+        <v>507520800</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>44476</v>
       </c>
       <c r="B229" s="4">
-        <v>466503616</v>
+        <v>505247168</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>44477</v>
       </c>
       <c r="B230" s="4">
-        <v>472553088</v>
+        <v>503908800</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
         <v>44478</v>
       </c>
       <c r="B231" s="4">
-        <v>477944544</v>
+        <v>504402368</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
         <v>44479</v>
       </c>
       <c r="B232" s="4">
-        <v>483634144</v>
+        <v>508586464</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>44480</v>
       </c>
       <c r="B233" s="4">
-        <v>489568832</v>
+        <v>515985184</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2279,7 +2279,7 @@
         <v>44481</v>
       </c>
       <c r="B234" s="4">
-        <v>496392256</v>
+        <v>522579264</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2287,7 +2287,7 @@
         <v>44482</v>
       </c>
       <c r="B235" s="4">
-        <v>498962560</v>
+        <v>521366208</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2295,7 +2295,7 @@
         <v>44483</v>
       </c>
       <c r="B236" s="4">
-        <v>504076480</v>
+        <v>521315040</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>44484</v>
       </c>
       <c r="B237" s="4">
-        <v>511611712</v>
+        <v>522806144</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,7 +2311,7 @@
         <v>44485</v>
       </c>
       <c r="B238" s="4">
-        <v>518295072</v>
+        <v>525222720</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>44486</v>
       </c>
       <c r="B239" s="4">
-        <v>525094976</v>
+        <v>522298272</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
         <v>44487</v>
       </c>
       <c r="B240" s="4">
-        <v>534051968</v>
+        <v>522703712</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>44488</v>
       </c>
       <c r="B241" s="4">
-        <v>546377856</v>
+        <v>526913440</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2343,7 +2343,7 @@
         <v>44489</v>
       </c>
       <c r="B242" s="4">
-        <v>560984320</v>
+        <v>535331200</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>44490</v>
       </c>
       <c r="B243" s="4">
-        <v>578522048</v>
+        <v>551311936</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
         <v>44491</v>
       </c>
       <c r="B244" s="4">
-        <v>593458496</v>
+        <v>567845056</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2367,7 +2367,7 @@
         <v>44492</v>
       </c>
       <c r="B245" s="4">
-        <v>600154304</v>
+        <v>564523840</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
         <v>44493</v>
       </c>
       <c r="B246" s="4">
-        <v>593994816</v>
+        <v>562041024</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -2383,7 +2383,7 @@
         <v>44494</v>
       </c>
       <c r="B247" s="4">
-        <v>601481792</v>
+        <v>562729472</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
         <v>44495</v>
       </c>
       <c r="B248" s="4">
-        <v>617544960</v>
+        <v>579192128</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
         <v>44496</v>
       </c>
       <c r="B249" s="4">
-        <v>630899840</v>
+        <v>595855104</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2407,7 +2407,7 @@
         <v>44497</v>
       </c>
       <c r="B250" s="4">
-        <v>642823296</v>
+        <v>616224576</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
         <v>44498</v>
       </c>
       <c r="B251" s="4">
-        <v>652190464</v>
+        <v>627470912</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
         <v>44499</v>
       </c>
       <c r="B252" s="4">
-        <v>660231872</v>
+        <v>632041024</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
         <v>44500</v>
       </c>
       <c r="B253" s="4">
-        <v>667574656</v>
+        <v>640752320</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
         <v>44501</v>
       </c>
       <c r="B254" s="4">
-        <v>675076224</v>
+        <v>657088448</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>44502</v>
       </c>
       <c r="B255" s="4">
-        <v>682871104</v>
+        <v>679526976</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>44503</v>
       </c>
       <c r="B256" s="4">
-        <v>692186688</v>
+        <v>704958400</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>44504</v>
       </c>
       <c r="B257" s="4">
-        <v>700585408</v>
+        <v>714642880</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>44505</v>
       </c>
       <c r="B258" s="4">
-        <v>704211840</v>
+        <v>710750912</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
         <v>44506</v>
       </c>
       <c r="B259" s="4">
-        <v>707441408</v>
+        <v>705832832</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>44507</v>
       </c>
       <c r="B260" s="4">
-        <v>707705152</v>
+        <v>701873216</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>44508</v>
       </c>
       <c r="B261" s="4">
-        <v>709473152</v>
+        <v>698428160</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>44509</v>
       </c>
       <c r="B262" s="4">
-        <v>712645440</v>
+        <v>703138240</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>44510</v>
       </c>
       <c r="B263" s="4">
-        <v>720306496</v>
+        <v>716818176</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>44511</v>
       </c>
       <c r="B264" s="4">
-        <v>728508032</v>
+        <v>726124864</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>44512</v>
       </c>
       <c r="B265" s="4">
-        <v>732402880</v>
+        <v>723179136</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>44513</v>
       </c>
       <c r="B266" s="4">
-        <v>740355584</v>
+        <v>716404160</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>44514</v>
       </c>
       <c r="B267" s="4">
-        <v>741980352</v>
+        <v>717043520</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>44515</v>
       </c>
       <c r="B268" s="4">
-        <v>744259648</v>
+        <v>708156480</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>44516</v>
       </c>
       <c r="B269" s="4">
-        <v>751892736</v>
+        <v>721863808</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
         <v>44517</v>
       </c>
       <c r="B270" s="4">
-        <v>755820672</v>
+        <v>727672896</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
         <v>44518</v>
       </c>
       <c r="B271" s="4">
-        <v>760777600</v>
+        <v>724539776</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -2583,7 +2583,7 @@
         <v>44519</v>
       </c>
       <c r="B272" s="4">
-        <v>762344512</v>
+        <v>730837824</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>44520</v>
       </c>
       <c r="B273" s="4">
-        <v>768535296</v>
+        <v>715323712</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>44521</v>
       </c>
       <c r="B274" s="4">
-        <v>767276992</v>
+        <v>725858688</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>44522</v>
       </c>
       <c r="B275" s="4">
-        <v>774282368</v>
+        <v>737082496</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
         <v>44523</v>
       </c>
       <c r="B276" s="4">
-        <v>776764544</v>
+        <v>749679424</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>44524</v>
       </c>
       <c r="B277" s="4">
-        <v>779457536</v>
+        <v>757618240</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>44525</v>
       </c>
       <c r="B278" s="4">
-        <v>781318848</v>
+        <v>762451392</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>44526</v>
       </c>
       <c r="B279" s="4">
-        <v>784069696</v>
+        <v>767967744</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -2647,7 +2647,7 @@
         <v>44527</v>
       </c>
       <c r="B280" s="4">
-        <v>783235968</v>
+        <v>768800576</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>44528</v>
       </c>
       <c r="B281" s="4">
-        <v>783706368</v>
+        <v>763700992</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
         <v>44529</v>
       </c>
       <c r="B282" s="4">
-        <v>780823872</v>
+        <v>755115840</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>44530</v>
       </c>
       <c r="B283" s="4">
-        <v>811249216</v>
+        <v>749693760</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>44531</v>
       </c>
       <c r="B284" s="4">
-        <v>781981312</v>
+        <v>737369280</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>44532</v>
       </c>
       <c r="B285" s="4">
-        <v>780594304</v>
+        <v>729126016</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -2695,7 +2695,7 @@
         <v>44533</v>
       </c>
       <c r="B286" s="4">
-        <v>778568256</v>
+        <v>730158144</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -2703,7 +2703,7 @@
         <v>44534</v>
       </c>
       <c r="B287" s="4">
-        <v>780213248</v>
+        <v>726155648</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>44535</v>
       </c>
       <c r="B288" s="4">
-        <v>779049344</v>
+        <v>723578816</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>44536</v>
       </c>
       <c r="B289" s="4">
-        <v>779839168</v>
+        <v>730816832</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>44537</v>
       </c>
       <c r="B290" s="4">
-        <v>782600064</v>
+        <v>742278912</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
         <v>44538</v>
       </c>
       <c r="B291" s="4">
-        <v>783325120</v>
+        <v>751586304</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
         <v>44539</v>
       </c>
       <c r="B292" s="4">
-        <v>786843968</v>
+        <v>761092416</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>44540</v>
       </c>
       <c r="B293" s="4">
-        <v>783083840</v>
+        <v>756451328</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>44541</v>
       </c>
       <c r="B294" s="4">
-        <v>780618880</v>
+        <v>752393280</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -2767,7 +2767,7 @@
         <v>44542</v>
       </c>
       <c r="B295" s="4">
-        <v>781278592</v>
+        <v>739659008</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -2775,7 +2775,7 @@
         <v>44543</v>
       </c>
       <c r="B296" s="4">
-        <v>780845184</v>
+        <v>730232384</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2783,7 +2783,7 @@
         <v>44544</v>
       </c>
       <c r="B297" s="4">
-        <v>777756864</v>
+        <v>736060672</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2791,7 +2791,7 @@
         <v>44545</v>
       </c>
       <c r="B298" s="4">
-        <v>781914496</v>
+        <v>743762176</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>44546</v>
       </c>
       <c r="B299" s="4">
-        <v>783911104</v>
+        <v>755569984</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -2807,7 +2807,7 @@
         <v>44547</v>
       </c>
       <c r="B300" s="4">
-        <v>784964608</v>
+        <v>765311808</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -2815,7 +2815,7 @@
         <v>44548</v>
       </c>
       <c r="B301" s="4">
-        <v>786399360</v>
+        <v>770207360</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>44549</v>
       </c>
       <c r="B302" s="4">
-        <v>784518592</v>
+        <v>773913984</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -2831,7 +2831,7 @@
         <v>44550</v>
       </c>
       <c r="B303" s="4">
-        <v>782698688</v>
+        <v>775401344</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>44551</v>
       </c>
       <c r="B304" s="4">
-        <v>783622592</v>
+        <v>777534720</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
         <v>44552</v>
       </c>
       <c r="B305" s="4">
-        <v>787164224</v>
+        <v>779091904</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -2855,7 +2855,7 @@
         <v>44553</v>
       </c>
       <c r="B306" s="4">
-        <v>789765888</v>
+        <v>780960192</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>44554</v>
       </c>
       <c r="B307" s="4">
-        <v>790938048</v>
+        <v>783474880</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -2871,7 +2871,7 @@
         <v>44555</v>
       </c>
       <c r="B308" s="4">
-        <v>792234560</v>
+        <v>781839040</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
         <v>44556</v>
       </c>
       <c r="B309" s="4">
-        <v>794899328</v>
+        <v>782272576</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>44557</v>
       </c>
       <c r="B310" s="4">
-        <v>793624832</v>
+        <v>782424896</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>44558</v>
       </c>
       <c r="B311" s="4">
-        <v>793971968</v>
+        <v>783840768</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -2903,7 +2903,7 @@
         <v>44559</v>
       </c>
       <c r="B312" s="4">
-        <v>794874816</v>
+        <v>780762368</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
         <v>44560</v>
       </c>
       <c r="B313" s="4">
-        <v>796685888</v>
+        <v>779864640</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -2919,7 +2919,7 @@
         <v>44561</v>
       </c>
       <c r="B314" s="4">
-        <v>796391488</v>
+        <v>780346496</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -2927,7 +2927,7 @@
         <v>44562</v>
       </c>
       <c r="B315" s="4">
-        <v>798134336</v>
+        <v>779886400</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>44563</v>
       </c>
       <c r="B316" s="4">
-        <v>798464384</v>
+        <v>779733696</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>44564</v>
       </c>
       <c r="B317" s="4">
-        <v>799960000</v>
+        <v>779488384</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>44565</v>
       </c>
       <c r="B318" s="4">
-        <v>800857216</v>
+        <v>779931392</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -2959,7 +2959,7 @@
         <v>44566</v>
       </c>
       <c r="B319" s="4">
-        <v>801583296</v>
+        <v>782478144</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -2967,7 +2967,7 @@
         <v>44567</v>
       </c>
       <c r="B320" s="4">
-        <v>800762560</v>
+        <v>786229824</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>44568</v>
       </c>
       <c r="B321" s="4">
-        <v>800864576</v>
+        <v>785595008</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
         <v>44569</v>
       </c>
       <c r="B322" s="4">
-        <v>800179264</v>
+        <v>784445568</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>44570</v>
       </c>
       <c r="B323" s="4">
-        <v>800144640</v>
+        <v>783359808</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -2999,7 +2999,7 @@
         <v>44571</v>
       </c>
       <c r="B324" s="4">
-        <v>800373760</v>
+        <v>781660992</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -3007,7 +3007,7 @@
         <v>44572</v>
       </c>
       <c r="B325" s="4">
-        <v>799116928</v>
+        <v>783080000</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
         <v>44573</v>
       </c>
       <c r="B326" s="4">
-        <v>801406784</v>
+        <v>781046656</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>44574</v>
       </c>
       <c r="B327" s="4">
-        <v>799295360</v>
+        <v>779317504</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>44575</v>
       </c>
       <c r="B328" s="4">
-        <v>806136768</v>
+        <v>774975168</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>44576</v>
       </c>
       <c r="B329" s="4">
-        <v>799162688</v>
+        <v>774637952</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3047,7 +3047,7 @@
         <v>44577</v>
       </c>
       <c r="B330" s="4">
-        <v>795771648</v>
+        <v>771803072</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3055,7 +3055,7 @@
         <v>44578</v>
       </c>
       <c r="B331" s="4">
-        <v>795110720</v>
+        <v>771083392</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3063,7 +3063,7 @@
         <v>44579</v>
       </c>
       <c r="B332" s="4">
-        <v>794848000</v>
+        <v>768919808</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3071,7 +3071,7 @@
         <v>44580</v>
       </c>
       <c r="B333" s="4">
-        <v>794250752</v>
+        <v>769205568</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
         <v>44581</v>
       </c>
       <c r="B334" s="4">
-        <v>793578752</v>
+        <v>767867776</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>44582</v>
       </c>
       <c r="B335" s="4">
-        <v>797284544</v>
+        <v>762763648</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>44583</v>
       </c>
       <c r="B336" s="4">
-        <v>796373952</v>
+        <v>760284160</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3103,7 +3103,7 @@
         <v>44584</v>
       </c>
       <c r="B337" s="4">
-        <v>796579648</v>
+        <v>757665472</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
         <v>44585</v>
       </c>
       <c r="B338" s="4">
-        <v>794557440</v>
+        <v>758477376</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -3119,7 +3119,7 @@
         <v>44586</v>
       </c>
       <c r="B339" s="4">
-        <v>794264192</v>
+        <v>758922176</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
         <v>44587</v>
       </c>
       <c r="B340" s="4">
-        <v>792865984</v>
+        <v>759336064</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
         <v>44588</v>
       </c>
       <c r="B341" s="4">
-        <v>794373184</v>
+        <v>759975104</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -3143,7 +3143,7 @@
         <v>44589</v>
       </c>
       <c r="B342" s="4">
-        <v>795994880</v>
+        <v>759682816</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <v>44590</v>
       </c>
       <c r="B343" s="4">
-        <v>798091328</v>
+        <v>761791360</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -3159,7 +3159,7 @@
         <v>44591</v>
       </c>
       <c r="B344" s="4">
-        <v>800313024</v>
+        <v>763091008</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
         <v>44592</v>
       </c>
       <c r="B345" s="4">
-        <v>800025856</v>
+        <v>765815104</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
         <v>44593</v>
       </c>
       <c r="B346" s="4">
-        <v>799842112</v>
+        <v>769205120</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -3183,7 +3183,7 @@
         <v>44594</v>
       </c>
       <c r="B347" s="4">
-        <v>801051776</v>
+        <v>768520384</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
         <v>44595</v>
       </c>
       <c r="B348" s="4">
-        <v>801468672</v>
+        <v>768182208</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>44596</v>
       </c>
       <c r="B349" s="4">
-        <v>801487040</v>
+        <v>767095360</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>44597</v>
       </c>
       <c r="B350" s="4">
-        <v>800681280</v>
+        <v>767766272</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3215,7 +3215,7 @@
         <v>44598</v>
       </c>
       <c r="B351" s="4">
-        <v>799105088</v>
+        <v>768139776</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>44599</v>
       </c>
       <c r="B352" s="4">
-        <v>799370496</v>
+        <v>766646272</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -3231,7 +3231,7 @@
         <v>44600</v>
       </c>
       <c r="B353" s="4">
-        <v>799844928</v>
+        <v>765289088</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>44601</v>
       </c>
       <c r="B354" s="4">
-        <v>800369088</v>
+        <v>765311232</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3247,7 +3247,7 @@
         <v>44602</v>
       </c>
       <c r="B355" s="4">
-        <v>799942592</v>
+        <v>765006080</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>44603</v>
       </c>
       <c r="B356" s="4">
-        <v>798010816</v>
+        <v>764785088</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -3263,7 +3263,7 @@
         <v>44604</v>
       </c>
       <c r="B357" s="4">
-        <v>797887424</v>
+        <v>762075840</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
         <v>44605</v>
       </c>
       <c r="B358" s="4">
-        <v>796993856</v>
+        <v>759123584</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
         <v>44606</v>
       </c>
       <c r="B359" s="4">
-        <v>799459008</v>
+        <v>756456064</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -3287,7 +3287,7 @@
         <v>44607</v>
       </c>
       <c r="B360" s="4">
-        <v>798402880</v>
+        <v>758665600</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
         <v>44608</v>
       </c>
       <c r="B361" s="4">
-        <v>795897216</v>
+        <v>758018560</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>44609</v>
       </c>
       <c r="B362" s="4">
-        <v>796350016</v>
+        <v>758772928</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -3311,7 +3311,7 @@
         <v>44610</v>
       </c>
       <c r="B363" s="4">
-        <v>796009536</v>
+        <v>759559040</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3319,7 +3319,7 @@
         <v>44611</v>
       </c>
       <c r="B364" s="4">
-        <v>796521152</v>
+        <v>760400768</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>44612</v>
       </c>
       <c r="B365" s="4">
-        <v>794519488</v>
+        <v>758683008</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -3335,7 +3335,7 @@
         <v>44613</v>
       </c>
       <c r="B366" s="4">
-        <v>794567744</v>
+        <v>756760192</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <v>44614</v>
       </c>
       <c r="B367" s="4">
-        <v>795970560</v>
+        <v>751478912</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -3351,7 +3351,7 @@
         <v>44615</v>
       </c>
       <c r="B368" s="4">
-        <v>795735040</v>
+        <v>754828928</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>44616</v>
       </c>
       <c r="B369" s="4">
-        <v>794674432</v>
+        <v>753630848</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3367,7 +3367,7 @@
         <v>44617</v>
       </c>
       <c r="B370" s="4">
-        <v>793856768</v>
+        <v>752905472</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -3375,7 +3375,7 @@
         <v>44618</v>
       </c>
       <c r="B371" s="4">
-        <v>795073216</v>
+        <v>753439488</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -3383,7 +3383,7 @@
         <v>44619</v>
       </c>
       <c r="B372" s="4">
-        <v>796141056</v>
+        <v>755133824</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,7 +3391,7 @@
         <v>44620</v>
       </c>
       <c r="B373" s="4">
-        <v>796689600</v>
+        <v>757289728</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
         <v>44621</v>
       </c>
       <c r="B374" s="4">
-        <v>795256256</v>
+        <v>758187072</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>44622</v>
       </c>
       <c r="B375" s="4">
-        <v>793765184</v>
+        <v>757422016</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3415,7 +3415,7 @@
         <v>44623</v>
       </c>
       <c r="B376" s="4">
-        <v>793528384</v>
+        <v>757589888</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -3423,7 +3423,7 @@
         <v>44624</v>
       </c>
       <c r="B377" s="4">
-        <v>794736320</v>
+        <v>756248064</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -3431,7 +3431,7 @@
         <v>44625</v>
       </c>
       <c r="B378" s="4">
-        <v>794176640</v>
+        <v>757768896</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
         <v>44626</v>
       </c>
       <c r="B379" s="4">
-        <v>792052352</v>
+        <v>756960064</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>44627</v>
       </c>
       <c r="B380" s="4">
-        <v>789671616</v>
+        <v>755852096</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>44628</v>
       </c>
       <c r="B381" s="4">
-        <v>787805312</v>
+        <v>754427008</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -3463,7 +3463,7 @@
         <v>44629</v>
       </c>
       <c r="B382" s="4">
-        <v>785986112</v>
+        <v>753357696</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
         <v>44630</v>
       </c>
       <c r="B383" s="4">
-        <v>785095552</v>
+        <v>752741184</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -3479,7 +3479,7 @@
         <v>44631</v>
       </c>
       <c r="B384" s="4">
-        <v>784017280</v>
+        <v>752060288</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -3487,7 +3487,7 @@
         <v>44632</v>
       </c>
       <c r="B385" s="4">
-        <v>783194752</v>
+        <v>751605120</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>44633</v>
       </c>
       <c r="B386" s="4">
-        <v>781818176</v>
+        <v>750426432</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -3503,7 +3503,7 @@
         <v>44634</v>
       </c>
       <c r="B387" s="4">
-        <v>781535872</v>
+        <v>750193856</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>44635</v>
       </c>
       <c r="B388" s="4">
-        <v>780817856</v>
+        <v>749395008</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
         <v>44636</v>
       </c>
       <c r="B389" s="4">
-        <v>778700992</v>
+        <v>747915392</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>44637</v>
       </c>
       <c r="B390" s="4">
-        <v>775389376</v>
+        <v>746261504</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>44638</v>
       </c>
       <c r="B391" s="4">
-        <v>776748544</v>
+        <v>745542592</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -3543,7 +3543,7 @@
         <v>44639</v>
       </c>
       <c r="B392" s="4">
-        <v>775951936</v>
+        <v>742058304</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -3551,7 +3551,7 @@
         <v>44640</v>
       </c>
       <c r="B393" s="4">
-        <v>777168320</v>
+        <v>741650048</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>44641</v>
       </c>
       <c r="B394" s="4">
-        <v>773897472</v>
+        <v>741239360</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
         <v>44642</v>
       </c>
       <c r="B395" s="4">
-        <v>772216384</v>
+        <v>739735296</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -3575,7 +3575,7 @@
         <v>44643</v>
       </c>
       <c r="B396" s="4">
-        <v>772698816</v>
+        <v>739464384</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -3583,7 +3583,7 @@
         <v>44644</v>
       </c>
       <c r="B397" s="4">
-        <v>772153152</v>
+        <v>737537792</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -3591,7 +3591,7 @@
         <v>44645</v>
       </c>
       <c r="B398" s="4">
-        <v>773123072</v>
+        <v>737860352</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>44646</v>
       </c>
       <c r="B399" s="4">
-        <v>772269120</v>
+        <v>739172160</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -3607,7 +3607,7 @@
         <v>44647</v>
       </c>
       <c r="B400" s="4">
-        <v>770555392</v>
+        <v>738773440</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -3615,7 +3615,7 @@
         <v>44648</v>
       </c>
       <c r="B401" s="4">
-        <v>769167040</v>
+        <v>738311232</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>44649</v>
       </c>
       <c r="B402" s="4">
-        <v>768323968</v>
+        <v>739182144</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -3631,7 +3631,7 @@
         <v>44650</v>
       </c>
       <c r="B403" s="4">
-        <v>766703104</v>
+        <v>738422464</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>44651</v>
       </c>
       <c r="B404" s="4">
-        <v>765331264</v>
+        <v>738892480</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>44652</v>
       </c>
       <c r="B405" s="4">
-        <v>763838592</v>
+        <v>739209216</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -3655,7 +3655,7 @@
         <v>44653</v>
       </c>
       <c r="B406" s="4">
-        <v>761566656</v>
+        <v>738514240</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -3663,7 +3663,7 @@
         <v>44654</v>
       </c>
       <c r="B407" s="4">
-        <v>760436544</v>
+        <v>738126080</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -3671,7 +3671,7 @@
         <v>44655</v>
       </c>
       <c r="B408" s="4">
-        <v>759214528</v>
+        <v>738315904</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>44656</v>
       </c>
       <c r="B409" s="4">
-        <v>757556288</v>
+        <v>738611904</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -3687,7 +3687,7 @@
         <v>44657</v>
       </c>
       <c r="B410" s="4">
-        <v>754806464</v>
+        <v>736778048</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
         <v>44658</v>
       </c>
       <c r="B411" s="4">
-        <v>752348096</v>
+        <v>737633920</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -3703,7 +3703,7 @@
         <v>44659</v>
       </c>
       <c r="B412" s="4">
-        <v>751156544</v>
+        <v>737665280</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -3711,7 +3711,7 @@
         <v>44660</v>
       </c>
       <c r="B413" s="4">
-        <v>750241664</v>
+        <v>738278912</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
         <v>44661</v>
       </c>
       <c r="B414" s="4">
-        <v>748079360</v>
+        <v>737844992</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -3727,7 +3727,7 @@
         <v>44662</v>
       </c>
       <c r="B415" s="4">
-        <v>746031936</v>
+        <v>737049856</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
         <v>44663</v>
       </c>
       <c r="B416" s="4">
-        <v>745163648</v>
+        <v>736326336</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -3743,7 +3743,7 @@
         <v>44664</v>
       </c>
       <c r="B417" s="4">
-        <v>743911104</v>
+        <v>735211584</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -3751,7 +3751,7 @@
         <v>44665</v>
       </c>
       <c r="B418" s="4">
-        <v>742657088</v>
+        <v>734879552</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>44666</v>
       </c>
       <c r="B419" s="4">
-        <v>741558976</v>
+        <v>733967488</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -3767,7 +3767,7 @@
         <v>44667</v>
       </c>
       <c r="B420" s="4">
-        <v>739940288</v>
+        <v>732849664</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -3775,7 +3775,7 @@
         <v>44668</v>
       </c>
       <c r="B421" s="4">
-        <v>737697088</v>
+        <v>731373888</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -3783,7 +3783,7 @@
         <v>44669</v>
       </c>
       <c r="B422" s="4">
-        <v>736573440</v>
+        <v>730752256</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -3791,7 +3791,7 @@
         <v>44670</v>
       </c>
       <c r="B423" s="4">
-        <v>736128768</v>
+        <v>729897600</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
         <v>44671</v>
       </c>
       <c r="B424" s="4">
-        <v>733898048</v>
+        <v>728602240</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -3807,7 +3807,7 @@
         <v>44672</v>
       </c>
       <c r="B425" s="4">
-        <v>730968640</v>
+        <v>727947264</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -3815,7 +3815,7 @@
         <v>44673</v>
       </c>
       <c r="B426" s="4">
-        <v>728680896</v>
+        <v>727146048</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -3823,7 +3823,7 @@
         <v>44674</v>
       </c>
       <c r="B427" s="4">
-        <v>728073152</v>
+        <v>726002880</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -3831,7 +3831,7 @@
         <v>44675</v>
       </c>
       <c r="B428" s="4">
-        <v>727290048</v>
+        <v>725084608</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -3839,7 +3839,7 @@
         <v>44676</v>
       </c>
       <c r="B429" s="4">
-        <v>725956800</v>
+        <v>724609216</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -3847,7 +3847,7 @@
         <v>44677</v>
       </c>
       <c r="B430" s="4">
-        <v>724742144</v>
+        <v>724307136</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -3855,7 +3855,7 @@
         <v>44678</v>
       </c>
       <c r="B431" s="4">
-        <v>722599872</v>
+        <v>723620224</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -3863,7 +3863,7 @@
         <v>44679</v>
       </c>
       <c r="B432" s="4">
-        <v>721171712</v>
+        <v>723581440</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -3871,7 +3871,7 @@
         <v>44680</v>
       </c>
       <c r="B433" s="4">
-        <v>717295744</v>
+        <v>721470144</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -3879,7 +3879,7 @@
         <v>44681</v>
       </c>
       <c r="B434" s="4">
-        <v>708023552</v>
+        <v>719172416</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
         <v>44682</v>
       </c>
       <c r="B435" s="4">
-        <v>705549056</v>
+        <v>720492608</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -3895,7 +3895,7 @@
         <v>44683</v>
       </c>
       <c r="B436" s="4">
-        <v>701630784</v>
+        <v>719088768</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -3903,7 +3903,7 @@
         <v>44684</v>
       </c>
       <c r="B437" s="4">
-        <v>699067264</v>
+        <v>717514176</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
         <v>44685</v>
       </c>
       <c r="B438" s="4">
-        <v>697933440</v>
+        <v>717375488</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -3919,7 +3919,7 @@
         <v>44686</v>
       </c>
       <c r="B439" s="4">
-        <v>696727040</v>
+        <v>716869056</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -3927,7 +3927,7 @@
         <v>44687</v>
       </c>
       <c r="B440" s="4">
-        <v>695905344</v>
+        <v>716631040</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -3935,7 +3935,7 @@
         <v>44688</v>
       </c>
       <c r="B441" s="4">
-        <v>693427968</v>
+        <v>716021440</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
         <v>44689</v>
       </c>
       <c r="B442" s="4">
-        <v>688804160</v>
+        <v>714977984</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
         <v>44690</v>
       </c>
       <c r="B443" s="4">
-        <v>688035072</v>
+        <v>715906496</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -3959,7 +3959,7 @@
         <v>44691</v>
       </c>
       <c r="B444" s="4">
-        <v>683555264</v>
+        <v>713999296</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -3967,7 +3967,7 @@
         <v>44692</v>
       </c>
       <c r="B445" s="4">
-        <v>673620032</v>
+        <v>711024256</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>44693</v>
       </c>
       <c r="B446" s="4">
-        <v>664383168</v>
+        <v>711434048</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -3983,7 +3983,7 @@
         <v>44694</v>
       </c>
       <c r="B447" s="4">
-        <v>658132800</v>
+        <v>710275392</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -3991,7 +3991,7 @@
         <v>44695</v>
       </c>
       <c r="B448" s="4">
-        <v>657211648</v>
+        <v>705896192</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -3999,7 +3999,7 @@
         <v>44696</v>
       </c>
       <c r="B449" s="4">
-        <v>657587648</v>
+        <v>705472384</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -4007,7 +4007,7 @@
         <v>44697</v>
       </c>
       <c r="B450" s="4">
-        <v>658697600</v>
+        <v>703482432</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -4015,7 +4015,7 @@
         <v>44698</v>
       </c>
       <c r="B451" s="4">
-        <v>655809728</v>
+        <v>702137216</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -4023,7 +4023,7 @@
         <v>44699</v>
       </c>
       <c r="B452" s="4">
-        <v>653915008</v>
+        <v>700835968</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -4031,7 +4031,7 @@
         <v>44700</v>
       </c>
       <c r="B453" s="4">
-        <v>652136064</v>
+        <v>703290752</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -4039,7 +4039,7 @@
         <v>44701</v>
       </c>
       <c r="B454" s="4">
-        <v>649703104</v>
+        <v>704745792</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4047,7 +4047,7 @@
         <v>44702</v>
       </c>
       <c r="B455" s="4">
-        <v>645250688</v>
+        <v>705916352</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -4055,7 +4055,7 @@
         <v>44703</v>
       </c>
       <c r="B456" s="4">
-        <v>643292224</v>
+        <v>708950656</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,7 +4063,7 @@
         <v>44704</v>
       </c>
       <c r="B457" s="4">
-        <v>641925376</v>
+        <v>708819392</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -4071,7 +4071,7 @@
         <v>44705</v>
       </c>
       <c r="B458" s="4">
-        <v>640422912</v>
+        <v>710047936</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -4079,7 +4079,7 @@
         <v>44706</v>
       </c>
       <c r="B459" s="4">
-        <v>636770304</v>
+        <v>709421440</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,7 +4087,7 @@
         <v>44707</v>
       </c>
       <c r="B460" s="4">
-        <v>633522496</v>
+        <v>710113408</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4095,7 +4095,7 @@
         <v>44708</v>
       </c>
       <c r="B461" s="4">
-        <v>631579008</v>
+        <v>710516288</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4103,7 +4103,7 @@
         <v>44709</v>
       </c>
       <c r="B462" s="4">
-        <v>629910080</v>
+        <v>710686656</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
         <v>44710</v>
       </c>
       <c r="B463" s="4">
-        <v>624239552</v>
+        <v>708123776</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
         <v>44711</v>
       </c>
       <c r="B464" s="4">
-        <v>620449856</v>
+        <v>707601280</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -4127,7 +4127,7 @@
         <v>44712</v>
       </c>
       <c r="B465" s="4">
-        <v>617322176</v>
+        <v>706801280</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -4135,7 +4135,7 @@
         <v>44713</v>
       </c>
       <c r="B466" s="4">
-        <v>614637888</v>
+        <v>706001600</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -4143,7 +4143,7 @@
         <v>44714</v>
       </c>
       <c r="B467" s="4">
-        <v>611451392</v>
+        <v>704668480</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -4151,7 +4151,7 @@
         <v>44715</v>
       </c>
       <c r="B468" s="4">
-        <v>608771840</v>
+        <v>705359872</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -4159,7 +4159,7 @@
         <v>44716</v>
       </c>
       <c r="B469" s="4">
-        <v>606761408</v>
+        <v>707669632</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -4167,7 +4167,7 @@
         <v>44717</v>
       </c>
       <c r="B470" s="4">
-        <v>607055040</v>
+        <v>712894848</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
         <v>44718</v>
       </c>
       <c r="B471" s="4">
-        <v>606943296</v>
+        <v>715339840</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -4183,7 +4183,7 @@
         <v>44719</v>
       </c>
       <c r="B472" s="4">
-        <v>602949056</v>
+        <v>712427840</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -4191,7 +4191,7 @@
         <v>44720</v>
       </c>
       <c r="B473" s="4">
-        <v>592267968</v>
+        <v>703647424</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -4199,7 +4199,7 @@
         <v>44721</v>
       </c>
       <c r="B474" s="4">
-        <v>581442368</v>
+        <v>693347328</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -4207,7 +4207,7 @@
         <v>44722</v>
       </c>
       <c r="B475" s="4">
-        <v>575952192</v>
+        <v>682040256</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -4215,7 +4215,7 @@
         <v>44723</v>
       </c>
       <c r="B476" s="4">
-        <v>568017536</v>
+        <v>676410944</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -4223,7 +4223,7 @@
         <v>44724</v>
       </c>
       <c r="B477" s="4">
-        <v>563855424</v>
+        <v>669327872</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -4231,7 +4231,7 @@
         <v>44725</v>
       </c>
       <c r="B478" s="4">
-        <v>559096256</v>
+        <v>663402560</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>44726</v>
       </c>
       <c r="B479" s="4">
-        <v>554285696</v>
+        <v>656710528</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -4247,7 +4247,7 @@
         <v>44727</v>
       </c>
       <c r="B480" s="4">
-        <v>555271488</v>
+        <v>650707968</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -4255,7 +4255,7 @@
         <v>44728</v>
       </c>
       <c r="B481" s="4">
-        <v>553920576</v>
+        <v>655749312</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -4263,7 +4263,7 @@
         <v>44729</v>
       </c>
       <c r="B482" s="4">
-        <v>557544640</v>
+        <v>656643776</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -4271,7 +4271,7 @@
         <v>44730</v>
       </c>
       <c r="B483" s="4">
-        <v>557717632</v>
+        <v>663316864</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -4279,7 +4279,7 @@
         <v>44731</v>
       </c>
       <c r="B484" s="4">
-        <v>559108800</v>
+        <v>665124992</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
         <v>44732</v>
       </c>
       <c r="B485" s="4">
-        <v>559025856</v>
+        <v>664211712</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
         <v>44733</v>
       </c>
       <c r="B486" s="4">
-        <v>559473472</v>
+        <v>660156224</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -4303,7 +4303,7 @@
         <v>44734</v>
       </c>
       <c r="B487" s="4">
-        <v>554366336</v>
+        <v>649465984</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
         <v>44735</v>
       </c>
       <c r="B488" s="4">
-        <v>550239040</v>
+        <v>638568576</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>44736</v>
       </c>
       <c r="B489" s="4">
-        <v>550021568</v>
+        <v>629596032</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -4327,7 +4327,7 @@
         <v>44737</v>
       </c>
       <c r="B490" s="4">
-        <v>548456512</v>
+        <v>618883328</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -4335,7 +4335,7 @@
         <v>44738</v>
       </c>
       <c r="B491" s="4">
-        <v>544176320</v>
+        <v>608378752</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -4343,7 +4343,7 @@
         <v>44739</v>
       </c>
       <c r="B492" s="4">
-        <v>541384640</v>
+        <v>599456896</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -4351,7 +4351,7 @@
         <v>44740</v>
       </c>
       <c r="B493" s="4">
-        <v>539758464</v>
+        <v>593479680</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -4359,7 +4359,7 @@
         <v>44741</v>
       </c>
       <c r="B494" s="4">
-        <v>540426432</v>
+        <v>591946432</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -4367,7 +4367,7 @@
         <v>44742</v>
       </c>
       <c r="B495" s="4">
-        <v>537704832</v>
+        <v>589786752</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -4375,7 +4375,7 @@
         <v>44743</v>
       </c>
       <c r="B496" s="4">
-        <v>534336320</v>
+        <v>587762176</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -4383,7 +4383,7 @@
         <v>44744</v>
       </c>
       <c r="B497" s="4">
-        <v>531808192</v>
+        <v>584245888</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -4391,7 +4391,7 @@
         <v>44745</v>
       </c>
       <c r="B498" s="4">
-        <v>528884896</v>
+        <v>579724672</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -4399,7 +4399,7 @@
         <v>44746</v>
       </c>
       <c r="B499" s="4">
-        <v>523346720</v>
+        <v>572487360</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>44747</v>
       </c>
       <c r="B500" s="4">
-        <v>513073056</v>
+        <v>585166720</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -4415,7 +4415,7 @@
         <v>44748</v>
       </c>
       <c r="B501" s="4">
-        <v>512142080</v>
+        <v>584687488</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -4423,7 +4423,7 @@
         <v>44749</v>
       </c>
       <c r="B502" s="4">
-        <v>510260800</v>
+        <v>581826752</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -4431,7 +4431,7 @@
         <v>44750</v>
       </c>
       <c r="B503" s="4">
-        <v>509098240</v>
+        <v>577766784</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -4439,7 +4439,7 @@
         <v>44751</v>
       </c>
       <c r="B504" s="4">
-        <v>510411616</v>
+        <v>573734208</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -4447,7 +4447,7 @@
         <v>44752</v>
       </c>
       <c r="B505" s="4">
-        <v>510106144</v>
+        <v>566476224</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -4455,7 +4455,7 @@
         <v>44753</v>
       </c>
       <c r="B506" s="4">
-        <v>507561504</v>
+        <v>559894848</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -4463,7 +4463,7 @@
         <v>44754</v>
       </c>
       <c r="B507" s="4">
-        <v>504312064</v>
+        <v>555048576</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -4471,7 +4471,7 @@
         <v>44755</v>
       </c>
       <c r="B508" s="4">
-        <v>501015424</v>
+        <v>550608832</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -4479,7 +4479,7 @@
         <v>44756</v>
       </c>
       <c r="B509" s="4">
-        <v>496031552</v>
+        <v>545852480</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -4487,7 +4487,7 @@
         <v>44757</v>
       </c>
       <c r="B510" s="4">
-        <v>489839392</v>
+        <v>540541504</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -4495,7 +4495,7 @@
         <v>44758</v>
       </c>
       <c r="B511" s="4">
-        <v>484518048</v>
+        <v>536200736</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -4503,7 +4503,7 @@
         <v>44759</v>
       </c>
       <c r="B512" s="4">
-        <v>482143136</v>
+        <v>538863744</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -4511,7 +4511,7 @@
         <v>44760</v>
       </c>
       <c r="B513" s="4">
-        <v>477359424</v>
+        <v>538766016</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -4519,7 +4519,7 @@
         <v>44761</v>
       </c>
       <c r="B514" s="4">
-        <v>471447904</v>
+        <v>538538304</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -4527,7 +4527,7 @@
         <v>44762</v>
       </c>
       <c r="B515" s="4">
-        <v>467575520</v>
+        <v>541832000</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -4535,7 +4535,7 @@
         <v>44763</v>
       </c>
       <c r="B516" s="4">
-        <v>467381536</v>
+        <v>549692544</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -4543,7 +4543,7 @@
         <v>44764</v>
       </c>
       <c r="B517" s="4">
-        <v>463368992</v>
+        <v>559304512</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -4551,7 +4551,7 @@
         <v>44765</v>
       </c>
       <c r="B518" s="4">
-        <v>461774624</v>
+        <v>555977664</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -4559,7 +4559,7 @@
         <v>44766</v>
       </c>
       <c r="B519" s="4">
-        <v>465012448</v>
+        <v>555229824</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -4567,7 +4567,7 @@
         <v>44767</v>
       </c>
       <c r="B520" s="4">
-        <v>468742400</v>
+        <v>555762816</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -4575,7 +4575,7 @@
         <v>44768</v>
       </c>
       <c r="B521" s="4">
-        <v>472241856</v>
+        <v>557706560</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -4583,7 +4583,7 @@
         <v>44769</v>
       </c>
       <c r="B522" s="4">
-        <v>475984928</v>
+        <v>561342592</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -4591,7 +4591,7 @@
         <v>44770</v>
       </c>
       <c r="B523" s="4">
-        <v>474650304</v>
+        <v>561539712</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -4599,7 +4599,7 @@
         <v>44771</v>
       </c>
       <c r="B524" s="4">
-        <v>473359808</v>
+        <v>558207744</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -4607,7 +4607,7 @@
         <v>44772</v>
       </c>
       <c r="B525" s="4">
-        <v>472059712</v>
+        <v>556283200</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -4615,7 +4615,7 @@
         <v>44773</v>
       </c>
       <c r="B526" s="4">
-        <v>472225824</v>
+        <v>557024896</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -4623,7 +4623,7 @@
         <v>44774</v>
       </c>
       <c r="B527" s="4">
-        <v>465495104</v>
+        <v>558694528</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -4631,7 +4631,7 @@
         <v>44775</v>
       </c>
       <c r="B528" s="4">
-        <v>457219808</v>
+        <v>557904704</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -4639,7 +4639,7 @@
         <v>44776</v>
       </c>
       <c r="B529" s="4">
-        <v>445963328</v>
+        <v>552438400</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -4647,7 +4647,7 @@
         <v>44777</v>
       </c>
       <c r="B530" s="4">
-        <v>436714208</v>
+        <v>550870976</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -4655,7 +4655,7 @@
         <v>44778</v>
       </c>
       <c r="B531" s="4">
-        <v>431878272</v>
+        <v>553637440</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -4663,7 +4663,7 @@
         <v>44779</v>
       </c>
       <c r="B532" s="4">
-        <v>430512064</v>
+        <v>555322624</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -4671,7 +4671,7 @@
         <v>44780</v>
       </c>
       <c r="B533" s="4">
-        <v>430709952</v>
+        <v>553763392</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -4679,7 +4679,7 @@
         <v>44781</v>
       </c>
       <c r="B534" s="4">
-        <v>430868512</v>
+        <v>550470272</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -4687,7 +4687,7 @@
         <v>44782</v>
       </c>
       <c r="B535" s="4">
-        <v>429855552</v>
+        <v>546697600</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -4695,7 +4695,7 @@
         <v>44783</v>
       </c>
       <c r="B536" s="4">
-        <v>429941312</v>
+        <v>543529344</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -4703,7 +4703,7 @@
         <v>44784</v>
       </c>
       <c r="B537" s="4">
-        <v>429565568</v>
+        <v>541063744</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -4711,7 +4711,7 @@
         <v>44785</v>
       </c>
       <c r="B538" s="4">
-        <v>426544000</v>
+        <v>538626688</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -4719,7 +4719,7 @@
         <v>44786</v>
       </c>
       <c r="B539" s="4">
-        <v>424009888</v>
+        <v>535500448</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -4727,7 +4727,7 @@
         <v>44787</v>
       </c>
       <c r="B540" s="4">
-        <v>424208352</v>
+        <v>533510944</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -4735,7 +4735,7 @@
         <v>44788</v>
       </c>
       <c r="B541" s="4">
-        <v>417166752</v>
+        <v>577810240</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -4743,7 +4743,7 @@
         <v>44789</v>
       </c>
       <c r="B542" s="4">
-        <v>420245856</v>
+        <v>581271360</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -4751,7 +4751,7 @@
         <v>44790</v>
       </c>
       <c r="B543" s="4">
-        <v>412708224</v>
+        <v>576386496</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -4759,7 +4759,7 @@
         <v>44791</v>
       </c>
       <c r="B544" s="4">
-        <v>408641472</v>
+        <v>580737792</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -4767,7 +4767,7 @@
         <v>44792</v>
       </c>
       <c r="B545" s="4">
-        <v>400824064</v>
+        <v>582207936</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -4775,7 +4775,7 @@
         <v>44793</v>
       </c>
       <c r="B546" s="4">
-        <v>396542784</v>
+        <v>583896640</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
         <v>44794</v>
       </c>
       <c r="B547" s="4">
-        <v>393942336</v>
+        <v>579945344</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -4791,7 +4791,7 @@
         <v>44795</v>
       </c>
       <c r="B548" s="4">
-        <v>391736000</v>
+        <v>573190592</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -4799,7 +4799,7 @@
         <v>44796</v>
       </c>
       <c r="B549" s="4">
-        <v>390657088</v>
+        <v>565834368</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -4807,7 +4807,7 @@
         <v>44797</v>
       </c>
       <c r="B550" s="4">
-        <v>390229408</v>
+        <v>555882816</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -4815,7 +4815,7 @@
         <v>44798</v>
       </c>
       <c r="B551" s="4">
-        <v>389161888</v>
+        <v>549763072</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -4823,7 +4823,7 @@
         <v>44799</v>
       </c>
       <c r="B552" s="4">
-        <v>389753984</v>
+        <v>545662592</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -4831,7 +4831,7 @@
         <v>44800</v>
       </c>
       <c r="B553" s="4">
-        <v>390742848</v>
+        <v>544423104</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -4839,7 +4839,7 @@
         <v>44801</v>
       </c>
       <c r="B554" s="4">
-        <v>394152032</v>
+        <v>543445120</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -4847,7 +4847,7 @@
         <v>44802</v>
       </c>
       <c r="B555" s="4">
-        <v>398609152</v>
+        <v>543693696</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -4855,7 +4855,7 @@
         <v>44803</v>
       </c>
       <c r="B556" s="4">
-        <v>395961568</v>
+        <v>537583296</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -4863,7 +4863,7 @@
         <v>44804</v>
       </c>
       <c r="B557" s="4">
-        <v>391209280</v>
+        <v>534729216</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -4871,7 +4871,7 @@
         <v>44805</v>
       </c>
       <c r="B558" s="4">
-        <v>385876192</v>
+        <v>534552448</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -4879,7 +4879,7 @@
         <v>44806</v>
       </c>
       <c r="B559" s="4">
-        <v>381482592</v>
+        <v>534027712</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -4887,7 +4887,7 @@
         <v>44807</v>
       </c>
       <c r="B560" s="4">
-        <v>379452288</v>
+        <v>530256096</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -4895,7 +4895,7 @@
         <v>44808</v>
       </c>
       <c r="B561" s="4">
-        <v>377072256</v>
+        <v>527531104</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -4903,7 +4903,7 @@
         <v>44809</v>
       </c>
       <c r="B562" s="4">
-        <v>375909024</v>
+        <v>524376640</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -4911,7 +4911,7 @@
         <v>44810</v>
       </c>
       <c r="B563" s="4">
-        <v>375394688</v>
+        <v>517420640</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -4919,7 +4919,7 @@
         <v>44811</v>
       </c>
       <c r="B564" s="4">
-        <v>375278272</v>
+        <v>511251008</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -4927,7 +4927,7 @@
         <v>44812</v>
       </c>
       <c r="B565" s="4">
-        <v>374561056</v>
+        <v>506560672</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -4935,7 +4935,7 @@
         <v>44813</v>
       </c>
       <c r="B566" s="4">
-        <v>370719552</v>
+        <v>510017664</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -4943,7 +4943,7 @@
         <v>44814</v>
       </c>
       <c r="B567" s="4">
-        <v>369877536</v>
+        <v>508804928</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -4951,7 +4951,7 @@
         <v>44815</v>
       </c>
       <c r="B568" s="4">
-        <v>366432736</v>
+        <v>507623648</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -4959,7 +4959,7 @@
         <v>44816</v>
       </c>
       <c r="B569" s="4">
-        <v>362922528</v>
+        <v>508686176</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -4967,7 +4967,7 @@
         <v>44817</v>
       </c>
       <c r="B570" s="4">
-        <v>360551328</v>
+        <v>505969120</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -4975,7 +4975,7 @@
         <v>44818</v>
       </c>
       <c r="B571" s="4">
-        <v>360676896</v>
+        <v>503346336</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -4983,7 +4983,7 @@
         <v>44819</v>
       </c>
       <c r="B572" s="4">
-        <v>363121920</v>
+        <v>498267968</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -4991,7 +4991,7 @@
         <v>44820</v>
       </c>
       <c r="B573" s="4">
-        <v>358703168</v>
+        <v>501759456</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -4999,7 +4999,7 @@
         <v>44821</v>
       </c>
       <c r="B574" s="4">
-        <v>354977280</v>
+        <v>507199840</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -5007,7 +5007,7 @@
         <v>44822</v>
       </c>
       <c r="B575" s="4">
-        <v>346862752</v>
+        <v>515928928</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -5015,7 +5015,7 @@
         <v>44823</v>
       </c>
       <c r="B576" s="4">
-        <v>340602656</v>
+        <v>521467776</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -5023,7 +5023,7 @@
         <v>44824</v>
       </c>
       <c r="B577" s="4">
-        <v>336360192</v>
+        <v>524906336</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -5031,7 +5031,7 @@
         <v>44825</v>
       </c>
       <c r="B578" s="4">
-        <v>335428800</v>
+        <v>524011104</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -5039,7 +5039,7 @@
         <v>44826</v>
       </c>
       <c r="B579" s="4">
-        <v>335917216</v>
+        <v>516213664</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -5047,7 +5047,7 @@
         <v>44827</v>
       </c>
       <c r="B580" s="4">
-        <v>334584096</v>
+        <v>510084032</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -5055,7 +5055,7 @@
         <v>44828</v>
       </c>
       <c r="B581" s="4">
-        <v>339221984</v>
+        <v>515073632</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -5063,7 +5063,7 @@
         <v>44829</v>
       </c>
       <c r="B582" s="4">
-        <v>335994176</v>
+        <v>516999648</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -5071,7 +5071,7 @@
         <v>44830</v>
       </c>
       <c r="B583" s="4">
-        <v>334392608</v>
+        <v>515651136</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -5079,7 +5079,7 @@
         <v>44831</v>
       </c>
       <c r="B584" s="4">
-        <v>331751392</v>
+        <v>505025120</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -5087,7 +5087,7 @@
         <v>44832</v>
       </c>
       <c r="B585" s="4">
-        <v>328621600</v>
+        <v>498929056</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -5095,7 +5095,7 @@
         <v>44833</v>
       </c>
       <c r="B586" s="4">
-        <v>324368992</v>
+        <v>500911584</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -5103,7 +5103,7 @@
         <v>44834</v>
       </c>
       <c r="B587" s="4">
-        <v>321300640</v>
+        <v>511904928</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -5111,7 +5111,7 @@
         <v>44835</v>
       </c>
       <c r="B588" s="4">
-        <v>316556032</v>
+        <v>524530144</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -5119,7 +5119,7 @@
         <v>44836</v>
       </c>
       <c r="B589" s="4">
-        <v>314911296</v>
+        <v>529880096</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -5127,7 +5127,7 @@
         <v>44837</v>
       </c>
       <c r="B590" s="4">
-        <v>311293952</v>
+        <v>533298464</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -5135,7 +5135,7 @@
         <v>44838</v>
       </c>
       <c r="B591" s="4">
-        <v>311270016</v>
+        <v>538007360</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -5143,7 +5143,7 @@
         <v>44839</v>
       </c>
       <c r="B592" s="4">
-        <v>307409312</v>
+        <v>540581696</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -5151,7 +5151,7 @@
         <v>44840</v>
       </c>
       <c r="B593" s="4">
-        <v>308679424</v>
+        <v>543120512</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -5159,7 +5159,7 @@
         <v>44841</v>
       </c>
       <c r="B594" s="4">
-        <v>310323840</v>
+        <v>546245184</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -5167,7 +5167,7 @@
         <v>44842</v>
       </c>
       <c r="B595" s="4">
-        <v>309507328</v>
+        <v>550636288</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -5175,7 +5175,7 @@
         <v>44843</v>
       </c>
       <c r="B596" s="4">
-        <v>310742144</v>
+        <v>556369536</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -5183,7 +5183,7 @@
         <v>44844</v>
       </c>
       <c r="B597" s="4">
-        <v>306590464</v>
+        <v>563134208</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -5191,7 +5191,7 @@
         <v>44845</v>
       </c>
       <c r="B598" s="4">
-        <v>305895648</v>
+        <v>567549824</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -5199,7 +5199,7 @@
         <v>44846</v>
       </c>
       <c r="B599" s="4">
-        <v>308209760</v>
+        <v>569133248</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -5207,7 +5207,7 @@
         <v>44847</v>
       </c>
       <c r="B600" s="4">
-        <v>309328480</v>
+        <v>571632448</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -5215,7 +5215,7 @@
         <v>44848</v>
       </c>
       <c r="B601" s="4">
-        <v>309634080</v>
+        <v>576950720</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -5223,7 +5223,7 @@
         <v>44849</v>
       </c>
       <c r="B602" s="4">
-        <v>313081184</v>
+        <v>582763328</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -5231,7 +5231,7 @@
         <v>44850</v>
       </c>
       <c r="B603" s="4">
-        <v>309583200</v>
+        <v>587029312</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -5239,7 +5239,7 @@
         <v>44851</v>
       </c>
       <c r="B604" s="4">
-        <v>307636096</v>
+        <v>590416640</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -5247,7 +5247,7 @@
         <v>44852</v>
       </c>
       <c r="B605" s="4">
-        <v>307634944</v>
+        <v>600379968</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -5255,7 +5255,7 @@
         <v>44853</v>
       </c>
       <c r="B606" s="4">
-        <v>305096544</v>
+        <v>614031680</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -5263,7 +5263,7 @@
         <v>44854</v>
       </c>
       <c r="B607" s="4">
-        <v>304472384</v>
+        <v>627007744</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -5271,7 +5271,7 @@
         <v>44855</v>
       </c>
       <c r="B608" s="4">
-        <v>301675584</v>
+        <v>640517888</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -5279,7 +5279,7 @@
         <v>44856</v>
       </c>
       <c r="B609" s="4">
-        <v>303019968</v>
+        <v>655035968</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -5287,7 +5287,7 @@
         <v>44857</v>
       </c>
       <c r="B610" s="4">
-        <v>304314784</v>
+        <v>662605056</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -5295,7 +5295,7 @@
         <v>44858</v>
       </c>
       <c r="B611" s="4">
-        <v>306309824</v>
+        <v>670617472</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -5303,7 +5303,7 @@
         <v>44859</v>
       </c>
       <c r="B612" s="4">
-        <v>306279776</v>
+        <v>679352512</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -5311,7 +5311,7 @@
         <v>44860</v>
       </c>
       <c r="B613" s="4">
-        <v>310762336</v>
+        <v>679327104</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -5319,7 +5319,7 @@
         <v>44861</v>
       </c>
       <c r="B614" s="4">
-        <v>314509632</v>
+        <v>671486976</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -5327,7 +5327,7 @@
         <v>44862</v>
       </c>
       <c r="B615" s="4">
-        <v>314994208</v>
+        <v>667419712</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -5335,7 +5335,7 @@
         <v>44863</v>
       </c>
       <c r="B616" s="4">
-        <v>314411872</v>
+        <v>665450624</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -5343,7 +5343,7 @@
         <v>44864</v>
       </c>
       <c r="B617" s="4">
-        <v>315530176</v>
+        <v>662708032</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="B618" s="4">
-        <v>314799904</v>
+        <v>658714432</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -5359,7 +5359,7 @@
         <v>44866</v>
       </c>
       <c r="B619" s="4">
-        <v>315607840</v>
+        <v>657440192</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -5367,7 +5367,7 @@
         <v>44867</v>
       </c>
       <c r="B620" s="4">
-        <v>313936672</v>
+        <v>656035008</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -5375,7 +5375,7 @@
         <v>44868</v>
       </c>
       <c r="B621" s="4">
-        <v>313454432</v>
+        <v>655534912</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -5383,7 +5383,7 @@
         <v>44869</v>
       </c>
       <c r="B622" s="4">
-        <v>312954720</v>
+        <v>662003648</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -5391,7 +5391,7 @@
         <v>44870</v>
       </c>
       <c r="B623" s="4">
-        <v>312705088</v>
+        <v>672308224</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -5399,7 +5399,7 @@
         <v>44871</v>
       </c>
       <c r="B624" s="4">
-        <v>311393056</v>
+        <v>688786880</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -5407,7 +5407,7 @@
         <v>44872</v>
       </c>
       <c r="B625" s="4">
-        <v>315701472</v>
+        <v>690857088</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -5415,7 +5415,7 @@
         <v>44873</v>
       </c>
       <c r="B626" s="4">
-        <v>317466432</v>
+        <v>696186304</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -5423,7 +5423,7 @@
         <v>44874</v>
       </c>
       <c r="B627" s="4">
-        <v>320261312</v>
+        <v>701673344</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -5431,7 +5431,7 @@
         <v>44875</v>
       </c>
       <c r="B628" s="4">
-        <v>325987904</v>
+        <v>711026624</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -5439,7 +5439,7 @@
         <v>44876</v>
       </c>
       <c r="B629" s="4">
-        <v>331272128</v>
+        <v>724865984</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -5447,7 +5447,7 @@
         <v>44877</v>
       </c>
       <c r="B630" s="4">
-        <v>337507008</v>
+        <v>737999168</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -5455,7 +5455,7 @@
         <v>44878</v>
       </c>
       <c r="B631" s="4">
-        <v>343033632</v>
+        <v>744246976</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -5463,7 +5463,7 @@
         <v>44879</v>
       </c>
       <c r="B632" s="4">
-        <v>348423488</v>
+        <v>749353088</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -5471,7 +5471,7 @@
         <v>44880</v>
       </c>
       <c r="B633" s="4">
-        <v>358298784</v>
+        <v>746944896</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -5479,7 +5479,7 @@
         <v>44881</v>
       </c>
       <c r="B634" s="4">
-        <v>365341312</v>
+        <v>752325440</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
         <v>44882</v>
       </c>
       <c r="B635" s="4">
-        <v>372622848</v>
+        <v>756665152</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -5495,7 +5495,7 @@
         <v>44883</v>
       </c>
       <c r="B636" s="4">
-        <v>385281504</v>
+        <v>759336640</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -5503,7 +5503,7 @@
         <v>44884</v>
       </c>
       <c r="B637" s="4">
-        <v>401267168</v>
+        <v>761576576</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -5511,7 +5511,7 @@
         <v>44885</v>
       </c>
       <c r="B638" s="4">
-        <v>418848064</v>
+        <v>762753408</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -5519,7 +5519,7 @@
         <v>44886</v>
       </c>
       <c r="B639" s="4">
-        <v>437335840</v>
+        <v>765359360</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -5527,7 +5527,7 @@
         <v>44887</v>
       </c>
       <c r="B640" s="4">
-        <v>454044256</v>
+        <v>767541248</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -5535,7 +5535,7 @@
         <v>44888</v>
       </c>
       <c r="B641" s="4">
-        <v>463153088</v>
+        <v>773401472</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -5543,7 +5543,7 @@
         <v>44889</v>
       </c>
       <c r="B642" s="4">
-        <v>468491360</v>
+        <v>779042624</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -5551,7 +5551,7 @@
         <v>44890</v>
       </c>
       <c r="B643" s="4">
-        <v>471855776</v>
+        <v>777806656</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -5559,7 +5559,7 @@
         <v>44891</v>
       </c>
       <c r="B644" s="4">
-        <v>472493792</v>
+        <v>779051968</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -5567,7 +5567,7 @@
         <v>44892</v>
       </c>
       <c r="B645" s="4">
-        <v>471079392</v>
+        <v>777498752</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -5575,7 +5575,7 @@
         <v>44893</v>
       </c>
       <c r="B646" s="4">
-        <v>469401024</v>
+        <v>772889024</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -5583,7 +5583,7 @@
         <v>44894</v>
       </c>
       <c r="B647" s="4">
-        <v>467736736</v>
+        <v>768835712</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -5591,7 +5591,7 @@
         <v>44895</v>
       </c>
       <c r="B648" s="4">
-        <v>470404736</v>
+        <v>761364288</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -5599,7 +5599,7 @@
         <v>44896</v>
       </c>
       <c r="B649" s="4">
-        <v>467757056</v>
+        <v>759743424</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -5607,7 +5607,7 @@
         <v>44897</v>
       </c>
       <c r="B650" s="4">
-        <v>470510464</v>
+        <v>755449280</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -5615,7 +5615,7 @@
         <v>44898</v>
       </c>
       <c r="B651" s="4">
-        <v>471405632</v>
+        <v>752638848</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -5623,7 +5623,7 @@
         <v>44899</v>
       </c>
       <c r="B652" s="4">
-        <v>475172480</v>
+        <v>755140544</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -5631,7 +5631,7 @@
         <v>44900</v>
       </c>
       <c r="B653" s="4">
-        <v>481788224</v>
+        <v>754541376</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -5639,7 +5639,7 @@
         <v>44901</v>
       </c>
       <c r="B654" s="4">
-        <v>486628832</v>
+        <v>757801088</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -5647,7 +5647,7 @@
         <v>44902</v>
       </c>
       <c r="B655" s="4">
-        <v>492592128</v>
+        <v>758802240</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -5655,7 +5655,7 @@
         <v>44903</v>
       </c>
       <c r="B656" s="4">
-        <v>494682880</v>
+        <v>764291648</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -5663,7 +5663,7 @@
         <v>44904</v>
       </c>
       <c r="B657" s="4">
-        <v>497071040</v>
+        <v>766386624</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -5671,7 +5671,7 @@
         <v>44905</v>
       </c>
       <c r="B658" s="4">
-        <v>497749184</v>
+        <v>769319040</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -5679,7 +5679,7 @@
         <v>44906</v>
       </c>
       <c r="B659" s="4">
-        <v>499592704</v>
+        <v>770518336</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -5687,7 +5687,7 @@
         <v>44907</v>
       </c>
       <c r="B660" s="4">
-        <v>498144608</v>
+        <v>773769984</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -5695,7 +5695,7 @@
         <v>44908</v>
       </c>
       <c r="B661" s="4">
-        <v>500083392</v>
+        <v>768817600</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -5703,7 +5703,7 @@
         <v>44909</v>
       </c>
       <c r="B662" s="4">
-        <v>505697184</v>
+        <v>765857472</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -5711,7 +5711,7 @@
         <v>44910</v>
       </c>
       <c r="B663" s="4">
-        <v>508140064</v>
+        <v>766328384</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -5719,7 +5719,7 @@
         <v>44911</v>
       </c>
       <c r="B664" s="4">
-        <v>508515168</v>
+        <v>774584512</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -5727,7 +5727,7 @@
         <v>44912</v>
       </c>
       <c r="B665" s="4">
-        <v>510149664</v>
+        <v>771275904</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -5735,7 +5735,7 @@
         <v>44913</v>
       </c>
       <c r="B666" s="4">
-        <v>512169216</v>
+        <v>771048896</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -5743,7 +5743,7 @@
         <v>44914</v>
       </c>
       <c r="B667" s="4">
-        <v>517275616</v>
+        <v>769285120</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -5751,7 +5751,7 @@
         <v>44915</v>
       </c>
       <c r="B668" s="4">
-        <v>518173568</v>
+        <v>776614976</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -5759,7 +5759,7 @@
         <v>44916</v>
       </c>
       <c r="B669" s="4">
-        <v>521754080</v>
+        <v>773756352</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -5767,7 +5767,7 @@
         <v>44917</v>
       </c>
       <c r="B670" s="4">
-        <v>525174144</v>
+        <v>772421824</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -5775,7 +5775,7 @@
         <v>44918</v>
       </c>
       <c r="B671" s="4">
-        <v>526205344</v>
+        <v>776783872</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -5783,7 +5783,7 @@
         <v>44919</v>
       </c>
       <c r="B672" s="4">
-        <v>526324864</v>
+        <v>776371264</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -5791,7 +5791,7 @@
         <v>44920</v>
       </c>
       <c r="B673" s="4">
-        <v>525067008</v>
+        <v>776049536</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -5799,7 +5799,7 @@
         <v>44921</v>
       </c>
       <c r="B674" s="4">
-        <v>527289856</v>
+        <v>769923840</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -5807,7 +5807,7 @@
         <v>44922</v>
       </c>
       <c r="B675" s="4">
-        <v>529277920</v>
+        <v>768108160</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -5815,7 +5815,7 @@
         <v>44923</v>
       </c>
       <c r="B676" s="4">
-        <v>530414688</v>
+        <v>771037824</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -5823,7 +5823,7 @@
         <v>44924</v>
       </c>
       <c r="B677" s="4">
-        <v>531246528</v>
+        <v>770607104</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -5831,7 +5831,7 @@
         <v>44925</v>
       </c>
       <c r="B678" s="4">
-        <v>534126528</v>
+        <v>768358080</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -5839,7 +5839,7 @@
         <v>44926</v>
       </c>
       <c r="B679" s="4">
-        <v>536496320</v>
+        <v>768621056</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -5847,7 +5847,7 @@
         <v>44927</v>
       </c>
       <c r="B680" s="4">
-        <v>540455808</v>
+        <v>767344256</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -5855,7 +5855,7 @@
         <v>44928</v>
       </c>
       <c r="B681" s="4">
-        <v>541649216</v>
+        <v>771282816</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -5863,7 +5863,7 @@
         <v>44929</v>
       </c>
       <c r="B682" s="4">
-        <v>538281472</v>
+        <v>780975744</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -5871,7 +5871,7 @@
         <v>44930</v>
       </c>
       <c r="B683" s="4">
-        <v>538395456</v>
+        <v>775314688</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -5879,7 +5879,7 @@
         <v>44931</v>
       </c>
       <c r="B684" s="4">
-        <v>543371264</v>
+        <v>772719424</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -5887,7 +5887,7 @@
         <v>44932</v>
       </c>
       <c r="B685" s="4">
-        <v>540978240</v>
+        <v>776915008</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -5895,7 +5895,7 @@
         <v>44933</v>
       </c>
       <c r="B686" s="4">
-        <v>537960320</v>
+        <v>774824704</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -5903,7 +5903,7 @@
         <v>44934</v>
       </c>
       <c r="B687" s="4">
-        <v>538315328</v>
+        <v>774554432</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -5911,7 +5911,7 @@
         <v>44935</v>
       </c>
       <c r="B688" s="4">
-        <v>536121632</v>
+        <v>775112256</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -5919,7 +5919,7 @@
         <v>44936</v>
       </c>
       <c r="B689" s="4">
-        <v>536285184</v>
+        <v>769223680</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -5927,7 +5927,7 @@
         <v>44937</v>
       </c>
       <c r="B690" s="4">
-        <v>538030208</v>
+        <v>767298304</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -5935,7 +5935,7 @@
         <v>44938</v>
       </c>
       <c r="B691" s="4">
-        <v>538771008</v>
+        <v>767155648</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -5943,7 +5943,7 @@
         <v>44939</v>
       </c>
       <c r="B692" s="4">
-        <v>540350848</v>
+        <v>768107456</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -5951,7 +5951,7 @@
         <v>44940</v>
       </c>
       <c r="B693" s="4">
-        <v>543876736</v>
+        <v>766811840</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -5959,7 +5959,7 @@
         <v>44941</v>
       </c>
       <c r="B694" s="4">
-        <v>545806592</v>
+        <v>770555392</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -5967,7 +5967,7 @@
         <v>44942</v>
       </c>
       <c r="B695" s="4">
-        <v>546901632</v>
+        <v>776255168</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
@@ -5975,7 +5975,7 @@
         <v>44943</v>
       </c>
       <c r="B696" s="4">
-        <v>548484992</v>
+        <v>773063936</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -5983,7 +5983,7 @@
         <v>44944</v>
       </c>
       <c r="B697" s="4">
-        <v>551095360</v>
+        <v>772164096</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -5991,7 +5991,7 @@
         <v>44945</v>
       </c>
       <c r="B698" s="4">
-        <v>553175744</v>
+        <v>770864960</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -5999,7 +5999,7 @@
         <v>44946</v>
       </c>
       <c r="B699" s="4">
-        <v>554568384</v>
+        <v>771387520</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -6007,7 +6007,7 @@
         <v>44947</v>
       </c>
       <c r="B700" s="4">
-        <v>554885312</v>
+        <v>774313024</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -6015,7 +6015,7 @@
         <v>44948</v>
       </c>
       <c r="B701" s="4">
-        <v>556534848</v>
+        <v>769715392</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -6023,7 +6023,7 @@
         <v>44949</v>
       </c>
       <c r="B702" s="4">
-        <v>558438720</v>
+        <v>767800000</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -6031,7 +6031,7 @@
         <v>44950</v>
       </c>
       <c r="B703" s="4">
-        <v>561114176</v>
+        <v>767001152</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -6039,7 +6039,7 @@
         <v>44951</v>
       </c>
       <c r="B704" s="4">
-        <v>561229184</v>
+        <v>771356224</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -6047,7 +6047,7 @@
         <v>44952</v>
       </c>
       <c r="B705" s="4">
-        <v>562354432</v>
+        <v>763639296</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -6055,7 +6055,7 @@
         <v>44953</v>
       </c>
       <c r="B706" s="4">
-        <v>565090816</v>
+        <v>762324160</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
@@ -6063,7 +6063,7 @@
         <v>44954</v>
       </c>
       <c r="B707" s="4">
-        <v>568436096</v>
+        <v>758454080</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
@@ -6071,7 +6071,7 @@
         <v>44955</v>
       </c>
       <c r="B708" s="4">
-        <v>569466112</v>
+        <v>761079232</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
@@ -6079,7 +6079,7 @@
         <v>44956</v>
       </c>
       <c r="B709" s="4">
-        <v>568561152</v>
+        <v>765498112</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -6087,7 +6087,7 @@
         <v>44957</v>
       </c>
       <c r="B710" s="4">
-        <v>568721856</v>
+        <v>765793024</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
@@ -6095,7 +6095,7 @@
         <v>44958</v>
       </c>
       <c r="B711" s="4">
-        <v>567902592</v>
+        <v>769971200</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
@@ -6103,7 +6103,7 @@
         <v>44959</v>
       </c>
       <c r="B712" s="4">
-        <v>566780672</v>
+        <v>770941568</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
@@ -6111,7 +6111,7 @@
         <v>44960</v>
       </c>
       <c r="B713" s="4">
-        <v>565991936</v>
+        <v>767096576</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
@@ -6119,7 +6119,7 @@
         <v>44961</v>
       </c>
       <c r="B714" s="4">
-        <v>566327360</v>
+        <v>765279360</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
@@ -6127,7 +6127,7 @@
         <v>44962</v>
       </c>
       <c r="B715" s="4">
-        <v>566466304</v>
+        <v>766949248</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
@@ -6135,7 +6135,7 @@
         <v>44963</v>
       </c>
       <c r="B716" s="4">
-        <v>566755136</v>
+        <v>766829120</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
@@ -6143,7 +6143,7 @@
         <v>44964</v>
       </c>
       <c r="B717" s="4">
-        <v>568318528</v>
+        <v>763213120</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
@@ -6151,7 +6151,7 @@
         <v>44965</v>
       </c>
       <c r="B718" s="4">
-        <v>571496960</v>
+        <v>759346496</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
@@ -6159,7 +6159,7 @@
         <v>44966</v>
       </c>
       <c r="B719" s="4">
-        <v>574477248</v>
+        <v>757632192</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
@@ -6167,7 +6167,7 @@
         <v>44967</v>
       </c>
       <c r="B720" s="4">
-        <v>576586944</v>
+        <v>759234176</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
@@ -6175,7 +6175,7 @@
         <v>44968</v>
       </c>
       <c r="B721" s="4">
-        <v>577978816</v>
+        <v>757981120</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
@@ -6183,7 +6183,7 @@
         <v>44969</v>
       </c>
       <c r="B722" s="4">
-        <v>579885888</v>
+        <v>758124352</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
@@ -6191,7 +6191,7 @@
         <v>44970</v>
       </c>
       <c r="B723" s="4">
-        <v>581821952</v>
+        <v>757409728</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
@@ -6199,7 +6199,7 @@
         <v>44971</v>
       </c>
       <c r="B724" s="4">
-        <v>582978496</v>
+        <v>763248384</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
@@ -6207,7 +6207,7 @@
         <v>44972</v>
       </c>
       <c r="B725" s="4">
-        <v>586058176</v>
+        <v>757560832</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
@@ -6215,7 +6215,7 @@
         <v>44973</v>
       </c>
       <c r="B726" s="4">
-        <v>591060416</v>
+        <v>755355392</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
@@ -6223,7 +6223,7 @@
         <v>44974</v>
       </c>
       <c r="B727" s="4">
-        <v>594826752</v>
+        <v>756558208</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
@@ -6231,7 +6231,7 @@
         <v>44975</v>
       </c>
       <c r="B728" s="4">
-        <v>596976256</v>
+        <v>756232640</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
@@ -6239,7 +6239,7 @@
         <v>44976</v>
       </c>
       <c r="B729" s="4">
-        <v>597728256</v>
+        <v>756378432</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
@@ -6247,7 +6247,7 @@
         <v>44977</v>
       </c>
       <c r="B730" s="4">
-        <v>598291200</v>
+        <v>761643456</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
@@ -6255,7 +6255,7 @@
         <v>44978</v>
       </c>
       <c r="B731" s="4">
-        <v>596314880</v>
+        <v>763768256</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
@@ -6263,7 +6263,7 @@
         <v>44979</v>
       </c>
       <c r="B732" s="4">
-        <v>596167360</v>
+        <v>757029632</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
@@ -6271,7 +6271,7 @@
         <v>44980</v>
       </c>
       <c r="B733" s="4">
-        <v>597990592</v>
+        <v>756641024</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
@@ -6279,7 +6279,7 @@
         <v>44981</v>
       </c>
       <c r="B734" s="4">
-        <v>596519616</v>
+        <v>762057792</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
@@ -6287,7 +6287,7 @@
         <v>44982</v>
       </c>
       <c r="B735" s="4">
-        <v>593834496</v>
+        <v>763827648</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
@@ -6295,7 +6295,7 @@
         <v>44983</v>
       </c>
       <c r="B736" s="4">
-        <v>593988864</v>
+        <v>755268608</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
@@ -6303,7 +6303,7 @@
         <v>44984</v>
       </c>
       <c r="B737" s="4">
-        <v>595387136</v>
+        <v>753444800</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
@@ -6311,7 +6311,7 @@
         <v>44985</v>
       </c>
       <c r="B738" s="4">
-        <v>596580864</v>
+        <v>751268160</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
@@ -6319,7 +6319,7 @@
         <v>44986</v>
       </c>
       <c r="B739" s="4">
-        <v>597174464</v>
+        <v>752054848</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
@@ -6327,7 +6327,7 @@
         <v>44987</v>
       </c>
       <c r="B740" s="4">
-        <v>597966272</v>
+        <v>751442112</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
@@ -6335,7 +6335,7 @@
         <v>44988</v>
       </c>
       <c r="B741" s="4">
-        <v>598545024</v>
+        <v>750767680</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
@@ -6343,7 +6343,7 @@
         <v>44989</v>
       </c>
       <c r="B742" s="4">
-        <v>598750528</v>
+        <v>752583744</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
@@ -6351,7 +6351,7 @@
         <v>44990</v>
       </c>
       <c r="B743" s="4">
-        <v>597662912</v>
+        <v>757039488</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
@@ -6359,7 +6359,7 @@
         <v>44991</v>
       </c>
       <c r="B744" s="4">
-        <v>594480768</v>
+        <v>760699776</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
@@ -6367,7 +6367,7 @@
         <v>44992</v>
       </c>
       <c r="B745" s="4">
-        <v>594608576</v>
+        <v>754966784</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
@@ -6375,7 +6375,7 @@
         <v>44993</v>
       </c>
       <c r="B746" s="4">
-        <v>596760128</v>
+        <v>753056960</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
@@ -6383,7 +6383,7 @@
         <v>44994</v>
       </c>
       <c r="B747" s="4">
-        <v>601096960</v>
+        <v>748418368</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
@@ -6391,7 +6391,7 @@
         <v>44995</v>
       </c>
       <c r="B748" s="4">
-        <v>605902144</v>
+        <v>748118912</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
@@ -6399,7 +6399,7 @@
         <v>44996</v>
       </c>
       <c r="B749" s="4">
-        <v>607845120</v>
+        <v>749422528</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
@@ -6407,7 +6407,7 @@
         <v>44997</v>
       </c>
       <c r="B750" s="4">
-        <v>607936384</v>
+        <v>751597888</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
@@ -6415,7 +6415,7 @@
         <v>44998</v>
       </c>
       <c r="B751" s="4">
-        <v>607820352</v>
+        <v>752443008</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
@@ -6423,7 +6423,7 @@
         <v>44999</v>
       </c>
       <c r="B752" s="4">
-        <v>608266368</v>
+        <v>752726144</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
@@ -6431,7 +6431,7 @@
         <v>45000</v>
       </c>
       <c r="B753" s="4">
-        <v>609204672</v>
+        <v>752707584</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
@@ -6439,7 +6439,7 @@
         <v>45001</v>
       </c>
       <c r="B754" s="4">
-        <v>611878784</v>
+        <v>752804288</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
@@ -6447,7 +6447,7 @@
         <v>45002</v>
       </c>
       <c r="B755" s="4">
-        <v>614908800</v>
+        <v>754007424</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
@@ -6455,7 +6455,7 @@
         <v>45003</v>
       </c>
       <c r="B756" s="4">
-        <v>616679040</v>
+        <v>756039040</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
@@ -6463,7 +6463,7 @@
         <v>45004</v>
       </c>
       <c r="B757" s="4">
-        <v>617020352</v>
+        <v>757549760</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
@@ -6471,7 +6471,7 @@
         <v>45005</v>
       </c>
       <c r="B758" s="4">
-        <v>616941056</v>
+        <v>758718720</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
@@ -6479,7 +6479,7 @@
         <v>45006</v>
       </c>
       <c r="B759" s="4">
-        <v>614346432</v>
+        <v>762846656</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
@@ -6487,7 +6487,7 @@
         <v>45007</v>
       </c>
       <c r="B760" s="4">
-        <v>610698752</v>
+        <v>760486656</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
@@ -6495,7 +6495,7 @@
         <v>45008</v>
       </c>
       <c r="B761" s="4">
-        <v>608195264</v>
+        <v>759526272</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
@@ -6503,7 +6503,7 @@
         <v>45009</v>
       </c>
       <c r="B762" s="4">
-        <v>605963200</v>
+        <v>760512448</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
@@ -6511,7 +6511,7 @@
         <v>45010</v>
       </c>
       <c r="B763" s="4">
-        <v>604845952</v>
+        <v>758419328</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
@@ -6519,7 +6519,7 @@
         <v>45011</v>
       </c>
       <c r="B764" s="4">
-        <v>605489472</v>
+        <v>757768960</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
@@ -6527,7 +6527,7 @@
         <v>45012</v>
       </c>
       <c r="B765" s="4">
-        <v>606422720</v>
+        <v>757093504</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
@@ -6535,7 +6535,7 @@
         <v>45013</v>
       </c>
       <c r="B766" s="4">
-        <v>607344832</v>
+        <v>755704704</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
@@ -6543,7 +6543,7 @@
         <v>45014</v>
       </c>
       <c r="B767" s="4">
-        <v>607817024</v>
+        <v>754909376</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
@@ -6551,7 +6551,7 @@
         <v>45015</v>
       </c>
       <c r="B768" s="4">
-        <v>608907904</v>
+        <v>753966784</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
@@ -6559,7 +6559,7 @@
         <v>45016</v>
       </c>
       <c r="B769" s="4">
-        <v>608638272</v>
+        <v>758054912</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
@@ -6567,7 +6567,7 @@
         <v>45017</v>
       </c>
       <c r="B770" s="4">
-        <v>606902016</v>
+        <v>757291712</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
@@ -6575,7 +6575,7 @@
         <v>45018</v>
       </c>
       <c r="B771" s="4">
-        <v>604398592</v>
+        <v>759778560</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
@@ -6583,7 +6583,7 @@
         <v>45019</v>
       </c>
       <c r="B772" s="4">
-        <v>601547328</v>
+        <v>761751296</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
@@ -6591,7 +6591,7 @@
         <v>45020</v>
       </c>
       <c r="B773" s="4">
-        <v>597848832</v>
+        <v>763505216</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
@@ -6599,7 +6599,7 @@
         <v>45021</v>
       </c>
       <c r="B774" s="4">
-        <v>596917632</v>
+        <v>758652928</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
@@ -6607,7 +6607,7 @@
         <v>45022</v>
       </c>
       <c r="B775" s="4">
-        <v>596845376</v>
+        <v>755820800</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
@@ -6615,7 +6615,7 @@
         <v>45023</v>
       </c>
       <c r="B776" s="4">
-        <v>600506176</v>
+        <v>749986368</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
@@ -6623,7 +6623,7 @@
         <v>45024</v>
       </c>
       <c r="B777" s="4">
-        <v>605718528</v>
+        <v>748079488</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
@@ -6631,7 +6631,7 @@
         <v>45025</v>
       </c>
       <c r="B778" s="4">
-        <v>607135040</v>
+        <v>747312256</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
@@ -6639,7 +6639,7 @@
         <v>45026</v>
       </c>
       <c r="B779" s="4">
-        <v>608298240</v>
+        <v>747728320</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
@@ -6647,7 +6647,7 @@
         <v>45027</v>
       </c>
       <c r="B780" s="4">
-        <v>610635584</v>
+        <v>747497408</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
@@ -6655,7 +6655,7 @@
         <v>45028</v>
       </c>
       <c r="B781" s="4">
-        <v>612027264</v>
+        <v>748576064</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
@@ -6663,7 +6663,7 @@
         <v>45029</v>
       </c>
       <c r="B782" s="4">
-        <v>613289024</v>
+        <v>749101952</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
@@ -6671,7 +6671,7 @@
         <v>45030</v>
       </c>
       <c r="B783" s="4">
-        <v>611113088</v>
+        <v>752998656</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
@@ -6679,7 +6679,7 @@
         <v>45031</v>
       </c>
       <c r="B784" s="4">
-        <v>610420864</v>
+        <v>750650880</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
@@ -6687,7 +6687,7 @@
         <v>45032</v>
       </c>
       <c r="B785" s="4">
-        <v>609111296</v>
+        <v>746356608</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
@@ -6695,7 +6695,7 @@
         <v>45033</v>
       </c>
       <c r="B786" s="4">
-        <v>611564608</v>
+        <v>747740608</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
@@ -6703,7 +6703,7 @@
         <v>45034</v>
       </c>
       <c r="B787" s="4">
-        <v>611181120</v>
+        <v>748926528</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
@@ -6711,7 +6711,7 @@
         <v>45035</v>
       </c>
       <c r="B788" s="4">
-        <v>611440256</v>
+        <v>748647936</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
@@ -6719,7 +6719,7 @@
         <v>45036</v>
       </c>
       <c r="B789" s="4">
-        <v>611268544</v>
+        <v>749958208</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
@@ -6727,7 +6727,7 @@
         <v>45037</v>
       </c>
       <c r="B790" s="4">
-        <v>610700096</v>
+        <v>751298496</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
@@ -6735,7 +6735,7 @@
         <v>45038</v>
       </c>
       <c r="B791" s="4">
-        <v>610866368</v>
+        <v>751356992</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
@@ -6743,7 +6743,7 @@
         <v>45039</v>
       </c>
       <c r="B792" s="4">
-        <v>611944960</v>
+        <v>751406656</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
@@ -6751,7 +6751,7 @@
         <v>45040</v>
       </c>
       <c r="B793" s="4">
-        <v>613175936</v>
+        <v>751979584</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
@@ -6759,7 +6759,7 @@
         <v>45041</v>
       </c>
       <c r="B794" s="4">
-        <v>611224512</v>
+        <v>757161280</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
@@ -6767,7 +6767,7 @@
         <v>45042</v>
       </c>
       <c r="B795" s="4">
-        <v>608075520</v>
+        <v>757959744</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
@@ -6775,7 +6775,7 @@
         <v>45043</v>
       </c>
       <c r="B796" s="4">
-        <v>606485632</v>
+        <v>756218816</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
@@ -6783,7 +6783,7 @@
         <v>45044</v>
       </c>
       <c r="B797" s="4">
-        <v>606193472</v>
+        <v>753547264</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
@@ -6791,7 +6791,7 @@
         <v>45045</v>
       </c>
       <c r="B798" s="4">
-        <v>606889984</v>
+        <v>750586944</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
@@ -6799,7 +6799,7 @@
         <v>45046</v>
       </c>
       <c r="B799" s="4">
-        <v>606649600</v>
+        <v>747462272</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -6807,7 +6807,7 @@
         <v>45047</v>
       </c>
       <c r="B800" s="4">
-        <v>604937728</v>
+        <v>745528960</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
@@ -6815,7 +6815,7 @@
         <v>45048</v>
       </c>
       <c r="B801" s="4">
-        <v>600946432</v>
+        <v>742501632</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
@@ -6823,7 +6823,7 @@
         <v>45049</v>
       </c>
       <c r="B802" s="4">
-        <v>598182592</v>
+        <v>734896704</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
@@ -6831,7 +6831,7 @@
         <v>45050</v>
       </c>
       <c r="B803" s="4">
-        <v>595936384</v>
+        <v>726924224</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
@@ -6839,7 +6839,7 @@
         <v>45051</v>
       </c>
       <c r="B804" s="4">
-        <v>595503936</v>
+        <v>717997696</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
@@ -6847,7 +6847,7 @@
         <v>45052</v>
       </c>
       <c r="B805" s="4">
-        <v>595405120</v>
+        <v>708849984</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
@@ -6855,7 +6855,7 @@
         <v>45053</v>
       </c>
       <c r="B806" s="4">
-        <v>596995648</v>
+        <v>703118016</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
@@ -6863,7 +6863,7 @@
         <v>45054</v>
       </c>
       <c r="B807" s="4">
-        <v>594401984</v>
+        <v>699187648</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
@@ -6871,7 +6871,7 @@
         <v>45055</v>
       </c>
       <c r="B808" s="4">
-        <v>588416768</v>
+        <v>692964736</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
@@ -6879,7 +6879,7 @@
         <v>45056</v>
       </c>
       <c r="B809" s="4">
-        <v>584678528</v>
+        <v>682743296</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
@@ -6887,7 +6887,7 @@
         <v>45057</v>
       </c>
       <c r="B810" s="4">
-        <v>583227840</v>
+        <v>675445184</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
@@ -6895,7 +6895,7 @@
         <v>45058</v>
       </c>
       <c r="B811" s="4">
-        <v>582726272</v>
+        <v>672793472</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
@@ -6903,7 +6903,7 @@
         <v>45059</v>
       </c>
       <c r="B812" s="4">
-        <v>582550336</v>
+        <v>672369664</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
@@ -6911,7 +6911,7 @@
         <v>45060</v>
       </c>
       <c r="B813" s="4">
-        <v>582594240</v>
+        <v>669333440</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
@@ -6919,7 +6919,7 @@
         <v>45061</v>
       </c>
       <c r="B814" s="4">
-        <v>583533440</v>
+        <v>665725056</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
@@ -6927,7 +6927,7 @@
         <v>45062</v>
       </c>
       <c r="B815" s="4">
-        <v>582521408</v>
+        <v>664460096</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
@@ -6935,7 +6935,7 @@
         <v>45063</v>
       </c>
       <c r="B816" s="4">
-        <v>580362944</v>
+        <v>663117248</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
@@ -6943,7 +6943,7 @@
         <v>45064</v>
       </c>
       <c r="B817" s="4">
-        <v>578484800</v>
+        <v>659657408</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
@@ -6951,7 +6951,7 @@
         <v>45065</v>
       </c>
       <c r="B818" s="4">
-        <v>577548736</v>
+        <v>655514624</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
@@ -6959,7 +6959,7 @@
         <v>45066</v>
       </c>
       <c r="B819" s="4">
-        <v>577481216</v>
+        <v>652335808</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
@@ -6967,7 +6967,7 @@
         <v>45067</v>
       </c>
       <c r="B820" s="4">
-        <v>577430720</v>
+        <v>648101312</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
@@ -6975,7 +6975,7 @@
         <v>45068</v>
       </c>
       <c r="B821" s="4">
-        <v>576384000</v>
+        <v>643921536</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
@@ -6983,7 +6983,7 @@
         <v>45069</v>
       </c>
       <c r="B822" s="4">
-        <v>574479616</v>
+        <v>639680576</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
@@ -6991,7 +6991,7 @@
         <v>45070</v>
       </c>
       <c r="B823" s="4">
-        <v>571697408</v>
+        <v>638002624</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
@@ -6999,7 +6999,7 @@
         <v>45071</v>
       </c>
       <c r="B824" s="4">
-        <v>570747328</v>
+        <v>635484032</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
@@ -7007,7 +7007,7 @@
         <v>45072</v>
       </c>
       <c r="B825" s="4">
-        <v>570730432</v>
+        <v>631952192</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
@@ -7015,7 +7015,7 @@
         <v>45073</v>
       </c>
       <c r="B826" s="4">
-        <v>571118912</v>
+        <v>626991616</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
@@ -7023,7 +7023,7 @@
         <v>45074</v>
       </c>
       <c r="B827" s="4">
-        <v>571525632</v>
+        <v>624261248</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
@@ -7031,7 +7031,7 @@
         <v>45075</v>
       </c>
       <c r="B828" s="4">
-        <v>572011776</v>
+        <v>621203648</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
@@ -7039,7 +7039,7 @@
         <v>45076</v>
       </c>
       <c r="B829" s="4">
-        <v>573401152</v>
+        <v>620537792</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
@@ -7047,7 +7047,7 @@
         <v>45077</v>
       </c>
       <c r="B830" s="4">
-        <v>574064128</v>
+        <v>617996480</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
@@ -7055,7 +7055,7 @@
         <v>45078</v>
       </c>
       <c r="B831" s="4">
-        <v>574158336</v>
+        <v>614817152</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
@@ -7063,7 +7063,7 @@
         <v>45079</v>
       </c>
       <c r="B832" s="4">
-        <v>574109120</v>
+        <v>610822208</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
@@ -7071,7 +7071,7 @@
         <v>45080</v>
       </c>
       <c r="B833" s="4">
-        <v>572107264</v>
+        <v>607540032</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
@@ -7079,7 +7079,7 @@
         <v>45081</v>
       </c>
       <c r="B834" s="4">
-        <v>570754496</v>
+        <v>603198400</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
         <v>45082</v>
       </c>
       <c r="B835" s="4">
-        <v>571153984</v>
+        <v>598027776</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -7095,7 +7095,7 @@
         <v>45083</v>
       </c>
       <c r="B836" s="4">
-        <v>570431424</v>
+        <v>593487680</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
@@ -7103,7 +7103,7 @@
         <v>45084</v>
       </c>
       <c r="B837" s="4">
-        <v>570641280</v>
+        <v>591063232</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
@@ -7111,7 +7111,7 @@
         <v>45085</v>
       </c>
       <c r="B838" s="4">
-        <v>567253184</v>
+        <v>588785728</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
@@ -7119,7 +7119,7 @@
         <v>45086</v>
       </c>
       <c r="B839" s="4">
-        <v>560473088</v>
+        <v>586533120</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
@@ -7127,7 +7127,7 @@
         <v>45087</v>
       </c>
       <c r="B840" s="4">
-        <v>552826368</v>
+        <v>582801472</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
@@ -7135,7 +7135,7 @@
         <v>45088</v>
       </c>
       <c r="B841" s="4">
-        <v>548592768</v>
+        <v>580415040</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
@@ -7143,7 +7143,7 @@
         <v>45089</v>
       </c>
       <c r="B842" s="4">
-        <v>544478976</v>
+        <v>577192768</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
@@ -7151,7 +7151,7 @@
         <v>45090</v>
       </c>
       <c r="B843" s="4">
-        <v>541625472</v>
+        <v>570537344</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
@@ -7159,7 +7159,7 @@
         <v>45091</v>
       </c>
       <c r="B844" s="4">
-        <v>534371936</v>
+        <v>562137344</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
@@ -7167,7 +7167,7 @@
         <v>45092</v>
       </c>
       <c r="B845" s="4">
-        <v>526039328</v>
+        <v>555090304</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
@@ -7175,7 +7175,7 @@
         <v>45093</v>
       </c>
       <c r="B846" s="4">
-        <v>520581536</v>
+        <v>555708608</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
@@ -7183,7 +7183,7 @@
         <v>45094</v>
       </c>
       <c r="B847" s="4">
-        <v>525049760</v>
+        <v>568044416</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -7191,7 +7191,7 @@
         <v>45095</v>
       </c>
       <c r="B848" s="4">
-        <v>510538976</v>
+        <v>571986624</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
@@ -7199,7 +7199,7 @@
         <v>45096</v>
       </c>
       <c r="B849" s="4">
-        <v>498324832</v>
+        <v>572595648</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
@@ -7207,7 +7207,7 @@
         <v>45097</v>
       </c>
       <c r="B850" s="4">
-        <v>503696256</v>
+        <v>584283776</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
@@ -7215,7 +7215,7 @@
         <v>45098</v>
       </c>
       <c r="B851" s="4">
-        <v>500220320</v>
+        <v>588555264</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
@@ -7223,7 +7223,7 @@
         <v>45099</v>
       </c>
       <c r="B852" s="4">
-        <v>494548384</v>
+        <v>589936512</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
@@ -7231,7 +7231,7 @@
         <v>45100</v>
       </c>
       <c r="B853" s="4">
-        <v>491605504</v>
+        <v>590283520</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
@@ -7239,7 +7239,7 @@
         <v>45101</v>
       </c>
       <c r="B854" s="4">
-        <v>487937408</v>
+        <v>587690752</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
@@ -7247,7 +7247,7 @@
         <v>45102</v>
       </c>
       <c r="B855" s="4">
-        <v>476624672</v>
+        <v>586107072</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
@@ -7255,7 +7255,7 @@
         <v>45103</v>
       </c>
       <c r="B856" s="4">
-        <v>465944960</v>
+        <v>583132672</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
@@ -7263,7 +7263,7 @@
         <v>45104</v>
       </c>
       <c r="B857" s="4">
-        <v>464600480</v>
+        <v>578472512</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
@@ -7271,7 +7271,7 @@
         <v>45105</v>
       </c>
       <c r="B858" s="4">
-        <v>458688160</v>
+        <v>574643840</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
@@ -7279,7 +7279,7 @@
         <v>45106</v>
       </c>
       <c r="B859" s="4">
-        <v>453965472</v>
+        <v>570209984</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
@@ -7287,7 +7287,7 @@
         <v>45107</v>
       </c>
       <c r="B860" s="4">
-        <v>450203200</v>
+        <v>565962048</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
@@ -7295,7 +7295,7 @@
         <v>45108</v>
       </c>
       <c r="B861" s="4">
-        <v>444445472</v>
+        <v>562691712</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
@@ -7303,7 +7303,7 @@
         <v>45109</v>
       </c>
       <c r="B862" s="4">
-        <v>441197120</v>
+        <v>557056576</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
@@ -7311,7 +7311,7 @@
         <v>45110</v>
       </c>
       <c r="B863" s="4">
-        <v>438478624</v>
+        <v>551297792</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
@@ -7319,7 +7319,7 @@
         <v>45111</v>
       </c>
       <c r="B864" s="4">
-        <v>438840544</v>
+        <v>546827008</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
@@ -7327,7 +7327,7 @@
         <v>45112</v>
       </c>
       <c r="B865" s="4">
-        <v>438224416</v>
+        <v>542076544</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
@@ -7335,7 +7335,7 @@
         <v>45113</v>
       </c>
       <c r="B866" s="4">
-        <v>439408928</v>
+        <v>537705536</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
@@ -7343,7 +7343,7 @@
         <v>45114</v>
       </c>
       <c r="B867" s="4">
-        <v>438651104</v>
+        <v>533508512</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
@@ -7351,7 +7351,7 @@
         <v>45115</v>
       </c>
       <c r="B868" s="4">
-        <v>438853184</v>
+        <v>530074720</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
@@ -7359,7 +7359,7 @@
         <v>45116</v>
       </c>
       <c r="B869" s="4">
-        <v>438019296</v>
+        <v>526915520</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
@@ -7367,7 +7367,7 @@
         <v>45117</v>
       </c>
       <c r="B870" s="4">
-        <v>438470592</v>
+        <v>523347072</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
@@ -7375,7 +7375,7 @@
         <v>45118</v>
       </c>
       <c r="B871" s="4">
-        <v>434706016</v>
+        <v>522141408</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
@@ -7383,7 +7383,7 @@
         <v>45119</v>
       </c>
       <c r="B872" s="4">
-        <v>430445920</v>
+        <v>521744192</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
@@ -7391,7 +7391,7 @@
         <v>45120</v>
       </c>
       <c r="B873" s="4">
-        <v>406693088</v>
+        <v>531107840</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
@@ -7399,7 +7399,7 @@
         <v>45121</v>
       </c>
       <c r="B874" s="4">
-        <v>409264512</v>
+        <v>535111584</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
@@ -7407,7 +7407,7 @@
         <v>45122</v>
       </c>
       <c r="B875" s="4">
-        <v>430128160</v>
+        <v>538540736</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
@@ -7415,7 +7415,7 @@
         <v>45123</v>
       </c>
       <c r="B876" s="4">
-        <v>412456832</v>
+        <v>538067840</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
@@ -7423,7 +7423,7 @@
         <v>45124</v>
       </c>
       <c r="B877" s="4">
-        <v>406018048</v>
+        <v>542108608</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
@@ -7431,7 +7431,7 @@
         <v>45125</v>
       </c>
       <c r="B878" s="4">
-        <v>406247552</v>
+        <v>547992256</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
@@ -7439,7 +7439,7 @@
         <v>45126</v>
       </c>
       <c r="B879" s="4">
-        <v>402827680</v>
+        <v>549751168</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
@@ -7447,7 +7447,7 @@
         <v>45127</v>
       </c>
       <c r="B880" s="4">
-        <v>397789024</v>
+        <v>547623360</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
@@ -7455,7 +7455,7 @@
         <v>45128</v>
       </c>
       <c r="B881" s="4">
-        <v>396040032</v>
+        <v>541343552</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
@@ -7463,7 +7463,7 @@
         <v>45129</v>
       </c>
       <c r="B882" s="4">
-        <v>393800704</v>
+        <v>535029856</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
@@ -7471,7 +7471,7 @@
         <v>45130</v>
       </c>
       <c r="B883" s="4">
-        <v>391546592</v>
+        <v>530214080</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
@@ -7479,7 +7479,7 @@
         <v>45131</v>
       </c>
       <c r="B884" s="4">
-        <v>391701504</v>
+        <v>524932480</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
@@ -7487,7 +7487,7 @@
         <v>45132</v>
       </c>
       <c r="B885" s="4">
-        <v>393659968</v>
+        <v>518350112</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
@@ -7495,7 +7495,7 @@
         <v>45133</v>
       </c>
       <c r="B886" s="4">
-        <v>390554944</v>
+        <v>512796864</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
@@ -7503,7 +7503,7 @@
         <v>45134</v>
       </c>
       <c r="B887" s="4">
-        <v>389794656</v>
+        <v>507653632</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
@@ -7511,7 +7511,7 @@
         <v>45135</v>
       </c>
       <c r="B888" s="4">
-        <v>387779200</v>
+        <v>503754848</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
@@ -7519,7 +7519,7 @@
         <v>45136</v>
       </c>
       <c r="B889" s="4">
-        <v>386431200</v>
+        <v>500364352</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
@@ -7527,7 +7527,7 @@
         <v>45137</v>
       </c>
       <c r="B890" s="4">
-        <v>386993760</v>
+        <v>496188384</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
@@ -7535,7 +7535,7 @@
         <v>45138</v>
       </c>
       <c r="B891" s="4">
-        <v>387116768</v>
+        <v>494534432</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
@@ -7543,7 +7543,7 @@
         <v>45139</v>
       </c>
       <c r="B892" s="4">
-        <v>389373632</v>
+        <v>493497504</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
@@ -7551,7 +7551,7 @@
         <v>45140</v>
       </c>
       <c r="B893" s="4">
-        <v>389701408</v>
+        <v>493471488</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
@@ -7559,7 +7559,7 @@
         <v>45141</v>
       </c>
       <c r="B894" s="4">
-        <v>387892128</v>
+        <v>493002400</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
@@ -7567,7 +7567,7 @@
         <v>45142</v>
       </c>
       <c r="B895" s="4">
-        <v>388016768</v>
+        <v>491007424</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
@@ -7575,7 +7575,7 @@
         <v>45143</v>
       </c>
       <c r="B896" s="4">
-        <v>388313728</v>
+        <v>489347808</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
@@ -7583,7 +7583,7 @@
         <v>45144</v>
       </c>
       <c r="B897" s="4">
-        <v>388695104</v>
+        <v>489815456</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
@@ -7591,7 +7591,7 @@
         <v>45145</v>
       </c>
       <c r="B898" s="4">
-        <v>386377792</v>
+        <v>493361760</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
@@ -7599,7 +7599,7 @@
         <v>45146</v>
       </c>
       <c r="B899" s="4">
-        <v>379401152</v>
+        <v>492865984</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
@@ -7607,7 +7607,7 @@
         <v>45147</v>
       </c>
       <c r="B900" s="4">
-        <v>386179488</v>
+        <v>489207744</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
@@ -7615,7 +7615,7 @@
         <v>45148</v>
       </c>
       <c r="B901" s="4">
-        <v>397629504</v>
+        <v>485394688</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
@@ -7623,7 +7623,7 @@
         <v>45149</v>
       </c>
       <c r="B902" s="4">
-        <v>388588448</v>
+        <v>481629056</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
@@ -7631,7 +7631,7 @@
         <v>45150</v>
       </c>
       <c r="B903" s="4">
-        <v>384784384</v>
+        <v>480121888</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
@@ -7639,7 +7639,7 @@
         <v>45151</v>
       </c>
       <c r="B904" s="4">
-        <v>382592480</v>
+        <v>477908896</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
@@ -7647,7 +7647,7 @@
         <v>45152</v>
       </c>
       <c r="B905" s="4">
-        <v>382915168</v>
+        <v>475760320</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
@@ -7655,7 +7655,7 @@
         <v>45153</v>
       </c>
       <c r="B906" s="4">
-        <v>380519328</v>
+        <v>474556544</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
@@ -7663,7 +7663,7 @@
         <v>45154</v>
       </c>
       <c r="B907" s="4">
-        <v>379119200</v>
+        <v>471561216</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
         <v>45155</v>
       </c>
       <c r="B908" s="4">
-        <v>382282880</v>
+        <v>469509440</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
@@ -7679,7 +7679,7 @@
         <v>45156</v>
       </c>
       <c r="B909" s="4">
-        <v>384497248</v>
+        <v>468826752</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
@@ -7687,7 +7687,7 @@
         <v>45157</v>
       </c>
       <c r="B910" s="4">
-        <v>384967680</v>
+        <v>470096960</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
@@ -7695,7 +7695,7 @@
         <v>45158</v>
       </c>
       <c r="B911" s="4">
-        <v>387969664</v>
+        <v>472853888</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
@@ -7703,7 +7703,7 @@
         <v>45159</v>
       </c>
       <c r="B912" s="4">
-        <v>386819104</v>
+        <v>475115840</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
@@ -7711,7 +7711,7 @@
         <v>45160</v>
       </c>
       <c r="B913" s="4">
-        <v>377839360</v>
+        <v>477808800</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
@@ -7719,7 +7719,7 @@
         <v>45161</v>
       </c>
       <c r="B914" s="4">
-        <v>373830048</v>
+        <v>475875520</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
@@ -7727,7 +7727,7 @@
         <v>45162</v>
       </c>
       <c r="B915" s="4">
-        <v>376969408</v>
+        <v>470173472</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
@@ -7735,7 +7735,7 @@
         <v>45163</v>
       </c>
       <c r="B916" s="4">
-        <v>383672640</v>
+        <v>463569408</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
@@ -7743,7 +7743,7 @@
         <v>45164</v>
       </c>
       <c r="B917" s="4">
-        <v>376045056</v>
+        <v>472989088</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
@@ -7751,7 +7751,7 @@
         <v>45165</v>
       </c>
       <c r="B918" s="4">
-        <v>376381952</v>
+        <v>476187552</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
@@ -7759,7 +7759,7 @@
         <v>45166</v>
       </c>
       <c r="B919" s="4">
-        <v>375093376</v>
+        <v>474712544</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
@@ -7767,7 +7767,7 @@
         <v>45167</v>
       </c>
       <c r="B920" s="4">
-        <v>378583776</v>
+        <v>474637184</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
@@ -7775,7 +7775,7 @@
         <v>45168</v>
       </c>
       <c r="B921" s="4">
-        <v>386976960</v>
+        <v>474087712</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
@@ -7783,7 +7783,7 @@
         <v>45169</v>
       </c>
       <c r="B922" s="4">
-        <v>383881888</v>
+        <v>474289216</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
@@ -7791,7 +7791,7 @@
         <v>45170</v>
       </c>
       <c r="B923" s="4">
-        <v>384225312</v>
+        <v>475445152</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
@@ -7799,7 +7799,7 @@
         <v>45171</v>
       </c>
       <c r="B924" s="4">
-        <v>385787232</v>
+        <v>477814176</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
@@ -7807,7 +7807,7 @@
         <v>45172</v>
       </c>
       <c r="B925" s="4">
-        <v>386662304</v>
+        <v>482413696</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
@@ -7815,7 +7815,7 @@
         <v>45173</v>
       </c>
       <c r="B926" s="4">
-        <v>378219136</v>
+        <v>484582752</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
@@ -7823,7 +7823,7 @@
         <v>45174</v>
       </c>
       <c r="B927" s="4">
-        <v>386547296</v>
+        <v>480759168</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
@@ -7831,7 +7831,7 @@
         <v>45175</v>
       </c>
       <c r="B928" s="4">
-        <v>383115488</v>
+        <v>486981760</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
@@ -7839,7 +7839,7 @@
         <v>45176</v>
       </c>
       <c r="B929" s="4">
-        <v>385770688</v>
+        <v>482342304</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
@@ -7847,7 +7847,7 @@
         <v>45177</v>
       </c>
       <c r="B930" s="4">
-        <v>381838240</v>
+        <v>476019616</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
@@ -7855,7 +7855,7 @@
         <v>45178</v>
       </c>
       <c r="B931" s="4">
-        <v>375237120</v>
+        <v>469608576</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
@@ -7863,7 +7863,7 @@
         <v>45179</v>
       </c>
       <c r="B932" s="4">
-        <v>371310240</v>
+        <v>465645120</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
@@ -7871,7 +7871,7 @@
         <v>45180</v>
       </c>
       <c r="B933" s="4">
-        <v>381565952</v>
+        <v>463015232</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
@@ -7879,7 +7879,7 @@
         <v>45181</v>
       </c>
       <c r="B934" s="4">
-        <v>375117024</v>
+        <v>461145504</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
@@ -7887,7 +7887,7 @@
         <v>45182</v>
       </c>
       <c r="B935" s="4">
-        <v>372903104</v>
+        <v>457857632</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
@@ -7895,7 +7895,7 @@
         <v>45183</v>
       </c>
       <c r="B936" s="4">
-        <v>372914368</v>
+        <v>456773088</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
@@ -7903,7 +7903,7 @@
         <v>45184</v>
       </c>
       <c r="B937" s="4">
-        <v>375426048</v>
+        <v>465467232</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
@@ -7911,7 +7911,7 @@
         <v>45185</v>
       </c>
       <c r="B938" s="4">
-        <v>368607072</v>
+        <v>474280192</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
@@ -7919,7 +7919,7 @@
         <v>45186</v>
       </c>
       <c r="B939" s="4">
-        <v>366095936</v>
+        <v>469855744</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
@@ -7927,7 +7927,7 @@
         <v>45187</v>
       </c>
       <c r="B940" s="4">
-        <v>368888128</v>
+        <v>462806368</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
@@ -7935,7 +7935,7 @@
         <v>45188</v>
       </c>
       <c r="B941" s="4">
-        <v>373938336</v>
+        <v>454687456</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
@@ -7943,7 +7943,7 @@
         <v>45189</v>
       </c>
       <c r="B942" s="4">
-        <v>369977152</v>
+        <v>448694880</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
@@ -7951,7 +7951,7 @@
         <v>45190</v>
       </c>
       <c r="B943" s="4">
-        <v>368379552</v>
+        <v>440301152</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
@@ -7959,7 +7959,7 @@
         <v>45191</v>
       </c>
       <c r="B944" s="4">
-        <v>367039104</v>
+        <v>432887264</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
@@ -7967,7 +7967,7 @@
         <v>45192</v>
       </c>
       <c r="B945" s="4">
-        <v>367948256</v>
+        <v>425335392</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
@@ -7975,7 +7975,7 @@
         <v>45193</v>
       </c>
       <c r="B946" s="4">
-        <v>366124288</v>
+        <v>419141632</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.25">
@@ -7983,7 +7983,7 @@
         <v>45194</v>
       </c>
       <c r="B947" s="4">
-        <v>366827680</v>
+        <v>415472256</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
@@ -7991,7 +7991,7 @@
         <v>45195</v>
       </c>
       <c r="B948" s="4">
-        <v>366385216</v>
+        <v>411276352</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
@@ -7999,7 +7999,7 @@
         <v>45196</v>
       </c>
       <c r="B949" s="4">
-        <v>366995104</v>
+        <v>407483200</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
@@ -8007,7 +8007,7 @@
         <v>45197</v>
       </c>
       <c r="B950" s="4">
-        <v>366281536</v>
+        <v>402552608</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
@@ -8015,7 +8015,7 @@
         <v>45198</v>
       </c>
       <c r="B951" s="4">
-        <v>374220736</v>
+        <v>406493568</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.25">
@@ -8023,7 +8023,7 @@
         <v>45199</v>
       </c>
       <c r="B952" s="4">
-        <v>361955072</v>
+        <v>414670912</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
@@ -8031,7 +8031,7 @@
         <v>45200</v>
       </c>
       <c r="B953" s="4">
-        <v>358624736</v>
+        <v>412120928</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
@@ -8039,7 +8039,7 @@
         <v>45201</v>
       </c>
       <c r="B954" s="4">
-        <v>364354240</v>
+        <v>414219968</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
@@ -8047,7 +8047,7 @@
         <v>45202</v>
       </c>
       <c r="B955" s="4">
-        <v>357934240</v>
+        <v>415241728</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
@@ -8055,7 +8055,7 @@
         <v>45203</v>
       </c>
       <c r="B956" s="4">
-        <v>363583712</v>
+        <v>421321696</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
@@ -8063,7 +8063,7 @@
         <v>45204</v>
       </c>
       <c r="B957" s="4">
-        <v>354844160</v>
+        <v>422496320</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
@@ -8071,7 +8071,7 @@
         <v>45205</v>
       </c>
       <c r="B958" s="4">
-        <v>359569056</v>
+        <v>431339392</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
@@ -8079,7 +8079,7 @@
         <v>45206</v>
       </c>
       <c r="B959" s="4">
-        <v>357093632</v>
+        <v>435334208</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
@@ -8087,7 +8087,7 @@
         <v>45207</v>
       </c>
       <c r="B960" s="4">
-        <v>356601504</v>
+        <v>434198048</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
@@ -8095,7 +8095,7 @@
         <v>45208</v>
       </c>
       <c r="B961" s="4">
-        <v>350906176</v>
+        <v>430578208</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
@@ -8103,7 +8103,7 @@
         <v>45209</v>
       </c>
       <c r="B962" s="4">
-        <v>350045408</v>
+        <v>429811008</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
@@ -8111,7 +8111,7 @@
         <v>45210</v>
       </c>
       <c r="B963" s="4">
-        <v>349589344</v>
+        <v>431439584</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
@@ -8119,7 +8119,7 @@
         <v>45211</v>
       </c>
       <c r="B964" s="4">
-        <v>343768768</v>
+        <v>434337728</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
@@ -8127,7 +8127,7 @@
         <v>45212</v>
       </c>
       <c r="B965" s="4">
-        <v>337015648</v>
+        <v>435404320</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
@@ -8135,7 +8135,7 @@
         <v>45213</v>
       </c>
       <c r="B966" s="4">
-        <v>333641984</v>
+        <v>434254528</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
@@ -8143,7 +8143,7 @@
         <v>45214</v>
       </c>
       <c r="B967" s="4">
-        <v>331694688</v>
+        <v>430151840</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.25">
@@ -8151,7 +8151,7 @@
         <v>45215</v>
       </c>
       <c r="B968" s="4">
-        <v>332132352</v>
+        <v>428764000</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
@@ -8159,7 +8159,7 @@
         <v>45216</v>
       </c>
       <c r="B969" s="4">
-        <v>332430624</v>
+        <v>430841952</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
@@ -8167,7 +8167,7 @@
         <v>45217</v>
       </c>
       <c r="B970" s="4">
-        <v>332857568</v>
+        <v>433864736</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.25">
@@ -8175,7 +8175,7 @@
         <v>45218</v>
       </c>
       <c r="B971" s="4">
-        <v>334107232</v>
+        <v>440329600</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
@@ -8183,7 +8183,7 @@
         <v>45219</v>
       </c>
       <c r="B972" s="4">
-        <v>335517184</v>
+        <v>446613696</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
@@ -8191,7 +8191,7 @@
         <v>45220</v>
       </c>
       <c r="B973" s="4">
-        <v>337450432</v>
+        <v>455490016</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
@@ -8199,7 +8199,7 @@
         <v>45221</v>
       </c>
       <c r="B974" s="4">
-        <v>340467072</v>
+        <v>467346528</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
@@ -8207,7 +8207,7 @@
         <v>45222</v>
       </c>
       <c r="B975" s="4">
-        <v>339072256</v>
+        <v>469488608</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
@@ -8215,7 +8215,7 @@
         <v>45223</v>
       </c>
       <c r="B976" s="4">
-        <v>337779264</v>
+        <v>474463584</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
@@ -8223,7 +8223,7 @@
         <v>45224</v>
       </c>
       <c r="B977" s="4">
-        <v>349094272</v>
+        <v>472878368</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
@@ -8231,7 +8231,7 @@
         <v>45225</v>
       </c>
       <c r="B978" s="4">
-        <v>340188864</v>
+        <v>481330432</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.25">
@@ -8239,7 +8239,7 @@
         <v>45226</v>
       </c>
       <c r="B979" s="4">
-        <v>350590848</v>
+        <v>509561792</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
@@ -8247,7 +8247,7 @@
         <v>45227</v>
       </c>
       <c r="B980" s="4">
-        <v>338467488</v>
+        <v>531703808</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
@@ -8255,7 +8255,7 @@
         <v>45228</v>
       </c>
       <c r="B981" s="4">
-        <v>336641536</v>
+        <v>544944832</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.25">
@@ -8263,7 +8263,7 @@
         <v>45229</v>
       </c>
       <c r="B982" s="4">
-        <v>347601888</v>
+        <v>567105472</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
@@ -8271,7 +8271,7 @@
         <v>45230</v>
       </c>
       <c r="B983" s="4">
-        <v>339123328</v>
+        <v>586432448</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
@@ -8279,7 +8279,7 @@
         <v>45231</v>
       </c>
       <c r="B984" s="4">
-        <v>342063328</v>
+        <v>599916800</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
@@ -8287,7 +8287,7 @@
         <v>45232</v>
       </c>
       <c r="B985" s="4">
-        <v>333875904</v>
+        <v>621666880</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
@@ -8295,7 +8295,7 @@
         <v>45233</v>
       </c>
       <c r="B986" s="4">
-        <v>330961280</v>
+        <v>636410880</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
@@ -8303,7 +8303,7 @@
         <v>45234</v>
       </c>
       <c r="B987" s="4">
-        <v>330252896</v>
+        <v>645611968</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.25">
@@ -8311,7 +8311,7 @@
         <v>45235</v>
       </c>
       <c r="B988" s="4">
-        <v>330324608</v>
+        <v>654606720</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
@@ -8319,7 +8319,7 @@
         <v>45236</v>
       </c>
       <c r="B989" s="4">
-        <v>329814848</v>
+        <v>662882112</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
@@ -8327,7 +8327,7 @@
         <v>45237</v>
       </c>
       <c r="B990" s="4">
-        <v>329615488</v>
+        <v>665961984</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
@@ -8335,7 +8335,7 @@
         <v>45238</v>
       </c>
       <c r="B991" s="4">
-        <v>330286240</v>
+        <v>665161152</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
@@ -8343,7 +8343,7 @@
         <v>45239</v>
       </c>
       <c r="B992" s="4">
-        <v>331763744</v>
+        <v>663347968</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
@@ -8351,7 +8351,7 @@
         <v>45240</v>
       </c>
       <c r="B993" s="4">
-        <v>337995744</v>
+        <v>659293888</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
@@ -8359,7 +8359,7 @@
         <v>45241</v>
       </c>
       <c r="B994" s="4">
-        <v>332928160</v>
+        <v>660285248</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
@@ -8367,7 +8367,7 @@
         <v>45242</v>
       </c>
       <c r="B995" s="4">
-        <v>334908640</v>
+        <v>656357376</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
@@ -8375,7 +8375,7 @@
         <v>45243</v>
       </c>
       <c r="B996" s="4">
-        <v>334643328</v>
+        <v>650702400</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
@@ -8383,7 +8383,7 @@
         <v>45244</v>
       </c>
       <c r="B997" s="4">
-        <v>336795232</v>
+        <v>647627904</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
@@ -8391,7 +8391,7 @@
         <v>45245</v>
       </c>
       <c r="B998" s="4">
-        <v>333030976</v>
+        <v>642614272</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
@@ -8399,7 +8399,7 @@
         <v>45246</v>
       </c>
       <c r="B999" s="4">
-        <v>334001440</v>
+        <v>639523072</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
@@ -8407,7 +8407,7 @@
         <v>45247</v>
       </c>
       <c r="B1000" s="4">
-        <v>333256960</v>
+        <v>642223296</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
@@ -8415,7 +8415,7 @@
         <v>45248</v>
       </c>
       <c r="B1001" s="4">
-        <v>338607552</v>
+        <v>645373504</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
@@ -8423,7 +8423,7 @@
         <v>45249</v>
       </c>
       <c r="B1002" s="4">
-        <v>327970016</v>
+        <v>656446848</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
@@ -8431,7 +8431,7 @@
         <v>45250</v>
       </c>
       <c r="B1003" s="4">
-        <v>340107648</v>
+        <v>662420032</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
@@ -8439,7 +8439,7 @@
         <v>45251</v>
       </c>
       <c r="B1004" s="4">
-        <v>334168992</v>
+        <v>672455872</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
@@ -8447,7 +8447,7 @@
         <v>45252</v>
       </c>
       <c r="B1005" s="4">
-        <v>342134400</v>
+        <v>672960448</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
@@ -8455,7 +8455,7 @@
         <v>45253</v>
       </c>
       <c r="B1006" s="4">
-        <v>334285312</v>
+        <v>689276992</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
@@ -8463,7 +8463,7 @@
         <v>45254</v>
       </c>
       <c r="B1007" s="4">
-        <v>336407808</v>
+        <v>691610176</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
@@ -8471,7 +8471,7 @@
         <v>45255</v>
       </c>
       <c r="B1008" s="4">
-        <v>334860288</v>
+        <v>705477568</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
@@ -8479,7 +8479,7 @@
         <v>45256</v>
       </c>
       <c r="B1009" s="4">
-        <v>341885216</v>
+        <v>710618048</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
@@ -8487,7 +8487,7 @@
         <v>45257</v>
       </c>
       <c r="B1010" s="4">
-        <v>343902144</v>
+        <v>711905024</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
@@ -8495,7 +8495,7 @@
         <v>45258</v>
       </c>
       <c r="B1011" s="4">
-        <v>348918976</v>
+        <v>725660928</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
@@ -8503,7 +8503,7 @@
         <v>45259</v>
       </c>
       <c r="B1012" s="4">
-        <v>357663872</v>
+        <v>728262272</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
@@ -8511,7 +8511,7 @@
         <v>45260</v>
       </c>
       <c r="B1013" s="4">
-        <v>359477184</v>
+        <v>736599936</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
@@ -8519,7 +8519,7 @@
         <v>45261</v>
       </c>
       <c r="B1014" s="4">
-        <v>366017728</v>
+        <v>737637184</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
@@ -8527,7 +8527,7 @@
         <v>45262</v>
       </c>
       <c r="B1015" s="4">
-        <v>376085728</v>
+        <v>739147776</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
@@ -8535,7 +8535,7 @@
         <v>45263</v>
       </c>
       <c r="B1016" s="4">
-        <v>389148480</v>
+        <v>740242368</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
@@ -8543,7 +8543,7 @@
         <v>45264</v>
       </c>
       <c r="B1017" s="4">
-        <v>383722304</v>
+        <v>748477696</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
@@ -8551,7 +8551,7 @@
         <v>45265</v>
       </c>
       <c r="B1018" s="4">
-        <v>387300832</v>
+        <v>745541376</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
@@ -8559,7 +8559,7 @@
         <v>45266</v>
       </c>
       <c r="B1019" s="4">
-        <v>398160000</v>
+        <v>742245888</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
@@ -8567,7 +8567,7 @@
         <v>45267</v>
       </c>
       <c r="B1020" s="4">
-        <v>393142496</v>
+        <v>749638080</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
@@ -8575,7 +8575,7 @@
         <v>45268</v>
       </c>
       <c r="B1021" s="4">
-        <v>396354848</v>
+        <v>746068992</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
@@ -8583,7 +8583,7 @@
         <v>45269</v>
       </c>
       <c r="B1022" s="4">
-        <v>391400352</v>
+        <v>749751872</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
@@ -8591,7 +8591,7 @@
         <v>45270</v>
       </c>
       <c r="B1023" s="4">
-        <v>388703936</v>
+        <v>748825280</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
@@ -8599,7 +8599,7 @@
         <v>45271</v>
       </c>
       <c r="B1024" s="4">
-        <v>387423008</v>
+        <v>745437120</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
@@ -8607,7 +8607,7 @@
         <v>45272</v>
       </c>
       <c r="B1025" s="4">
-        <v>392837376</v>
+        <v>742656000</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
@@ -8615,7 +8615,7 @@
         <v>45273</v>
       </c>
       <c r="B1026" s="4">
-        <v>383165856</v>
+        <v>739238848</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
@@ -8623,7 +8623,7 @@
         <v>45274</v>
       </c>
       <c r="B1027" s="4">
-        <v>382262912</v>
+        <v>750317376</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
@@ -8631,7 +8631,7 @@
         <v>45275</v>
       </c>
       <c r="B1028" s="4">
-        <v>386990336</v>
+        <v>740639616</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
@@ -8639,7 +8639,7 @@
         <v>45276</v>
       </c>
       <c r="B1029" s="4">
-        <v>398127904</v>
+        <v>738640256</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
@@ -8647,7 +8647,7 @@
         <v>45277</v>
       </c>
       <c r="B1030" s="4">
-        <v>420994656</v>
+        <v>735667840</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
@@ -8655,7 +8655,7 @@
         <v>45278</v>
       </c>
       <c r="B1031" s="4">
-        <v>428196704</v>
+        <v>735926336</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
@@ -8663,7 +8663,7 @@
         <v>45279</v>
       </c>
       <c r="B1032" s="4">
-        <v>436082240</v>
+        <v>737708288</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
@@ -8671,7 +8671,7 @@
         <v>45280</v>
       </c>
       <c r="B1033" s="4">
-        <v>457756512</v>
+        <v>734411008</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
@@ -8679,7 +8679,7 @@
         <v>45281</v>
       </c>
       <c r="B1034" s="4">
-        <v>473911232</v>
+        <v>733141056</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
@@ -8687,7 +8687,7 @@
         <v>45282</v>
       </c>
       <c r="B1035" s="4">
-        <v>484619776</v>
+        <v>736174912</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
@@ -8695,7 +8695,7 @@
         <v>45283</v>
       </c>
       <c r="B1036" s="4">
-        <v>485022208</v>
+        <v>741183488</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
@@ -8703,7 +8703,7 @@
         <v>45284</v>
       </c>
       <c r="B1037" s="4">
-        <v>481199104</v>
+        <v>745163072</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
@@ -8711,7 +8711,7 @@
         <v>45285</v>
       </c>
       <c r="B1038" s="4">
-        <v>482456160</v>
+        <v>738704640</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
@@ -8719,7 +8719,7 @@
         <v>45286</v>
       </c>
       <c r="B1039" s="4">
-        <v>487120480</v>
+        <v>739339904</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
@@ -8727,7 +8727,7 @@
         <v>45287</v>
       </c>
       <c r="B1040" s="4">
-        <v>488105536</v>
+        <v>740409984</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
         <v>45288</v>
       </c>
       <c r="B1041" s="4">
-        <v>494412128</v>
+        <v>738125824</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
@@ -8743,7 +8743,7 @@
         <v>45289</v>
       </c>
       <c r="B1042" s="4">
-        <v>496029760</v>
+        <v>738758464</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
@@ -8751,7 +8751,7 @@
         <v>45290</v>
       </c>
       <c r="B1043" s="4">
-        <v>491422048</v>
+        <v>742890432</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
@@ -8759,7 +8759,7 @@
         <v>45291</v>
       </c>
       <c r="B1044" s="4">
-        <v>493375456</v>
+        <v>738102848</v>
       </c>
     </row>
   </sheetData>
